--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances.xlsx
@@ -1,37 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Lambda Threshold</t>
+  </si>
+  <si>
+    <t>Abstain Instances (Index, True Label)</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[(22, 0), (251, 1), (641, 0), (934, 1), (948, 1), (979, 0), (1058, 1)]</t>
+  </si>
+  <si>
+    <t>[(22, 0), (82, 1), (188, 1), (236, 1), (251, 1), (513, 1), (526, 1), (533, 0), (537, 1), (641, 0), (655, 1), (854, 1), (934, 1), (948, 1), (979, 0), (1058, 1), (1315, 1)]</t>
+  </si>
+  <si>
+    <t>[(22, 0), (82, 1), (168, 1), (173, 1), (188, 1), (236, 1), (251, 1), (279, 1), (512, 1), (513, 1), (526, 1), (533, 0), (537, 1), (590, 1), (635, 1), (641, 0), (655, 1), (747, 1), (845, 1), (854, 1), (934, 1), (948, 1), (961, 1), (979, 0), (1008, 1), (1058, 1), (1096, 1), (1213, 1), (1268, 1), (1315, 1), (1357, 1)]</t>
+  </si>
+  <si>
+    <t>[(22, 0), (69, 1), (82, 1), (101, 1), (137, 1), (165, 1), (168, 1), (173, 1), (188, 1), (236, 1), (241, 1), (251, 1), (256, 0), (279, 1), (363, 1), (512, 1), (513, 1), (526, 1), (533, 0), (537, 1), (584, 1), (590, 1), (635, 1), (641, 0), (655, 1), (659, 1), (747, 1), (788, 1), (845, 1), (854, 1), (894, 1), (934, 1), (948, 1), (956, 1), (961, 1), (975, 1), (979, 0), (985, 1), (1008, 1), (1058, 1), (1084, 1), (1085, 1), (1096, 1), (1188, 1), (1213, 1), (1234, 1), (1268, 1), (1278, 1), (1315, 1), (1357, 1), (1371, 1)]</t>
+  </si>
+  <si>
+    <t>[(22, 0), (69, 1), (82, 1), (86, 1), (101, 1), (137, 1), (165, 1), (168, 1), (173, 1), (188, 1), (236, 1), (241, 1), (251, 1), (256, 0), (279, 1), (338, 1), (363, 1), (512, 1), (513, 1), (526, 1), (533, 0), (537, 1), (580, 1), (584, 1), (590, 1), (635, 1), (641, 0), (655, 1), (659, 1), (702, 1), (714, 1), (747, 1), (761, 1), (788, 1), (845, 1), (854, 1), (884, 1), (894, 1), (934, 1), (948, 1), (956, 1), (961, 1), (975, 1), (979, 0), (985, 1), (986, 0), (1008, 1), (1058, 1), (1084, 1), (1085, 1), (1096, 1), (1161, 1), (1188, 1), (1189, 1), (1190, 1), (1213, 1), (1223, 1), (1224, 1), (1234, 1), (1268, 1), (1278, 1), (1315, 1), (1343, 1), (1357, 1), (1371, 1)]</t>
+  </si>
+  <si>
+    <t>[(22, 0), (52, 1), (55, 1), (69, 1), (82, 1), (86, 1), (101, 1), (137, 1), (165, 1), (168, 1), (173, 1), (188, 1), (211, 1), (233, 1), (236, 1), (241, 1), (251, 1), (256, 0), (271, 1), (279, 1), (299, 1), (338, 1), (363, 1), (367, 1), (401, 1), (424, 1), (512, 1), (513, 1), (526, 1), (529, 1), (533, 0), (537, 1), (580, 1), (584, 1), (590, 1), (635, 1), (637, 1), (641, 0), (655, 1), (659, 1), (669, 1), (702, 1), (714, 1), (747, 1), (761, 1), (788, 1), (845, 1), (854, 1), (884, 1), (894, 1), (902, 1), (934, 1), (948, 1), (956, 1), (961, 1), (975, 1), (979, 0), (985, 1), (986, 0), (993, 0), (1008, 1), (1058, 1), (1072, 1), (1084, 1), (1085, 1), (1096, 1), (1161, 1), (1188, 1), (1189, 1), (1190, 1), (1213, 1), (1223, 1), (1224, 1), (1234, 1), (1268, 1), (1278, 1), (1315, 1), (1343, 1), (1357, 1), (1371, 1)]</t>
+  </si>
+  <si>
+    <t>[(22, 0), (52, 1), (55, 1), (69, 1), (82, 1), (86, 1), (101, 1), (137, 1), (165, 1), (168, 1), (173, 1), (188, 1), (211, 1), (228, 1), (233, 1), (236, 1), (241, 1), (251, 1), (256, 0), (271, 1), (279, 1), (299, 1), (338, 1), (342, 1), (363, 1), (367, 1), (370, 1), (401, 1), (424, 1), (512, 1), (513, 1), (526, 1), (529, 1), (533, 0), (537, 1), (580, 1), (584, 1), (590, 1), (635, 1), (637, 1), (641, 0), (655, 1), (659, 1), (669, 1), (685, 1), (702, 1), (714, 1), (743, 1), (747, 1), (761, 1), (788, 1), (790, 1), (833, 1), (845, 1), (854, 1), (884, 1), (894, 1), (902, 1), (934, 1), (948, 1), (956, 1), (961, 1), (975, 1), (979, 0), (985, 1), (986, 0), (993, 0), (1008, 1), (1058, 1), (1072, 1), (1084, 1), (1085, 1), (1096, 1), (1161, 1), (1188, 1), (1189, 1), (1190, 1), (1213, 1), (1223, 1), (1224, 1), (1234, 1), (1268, 1), (1278, 1), (1315, 1), (1343, 1), (1357, 1), (1371, 1)]</t>
+  </si>
+  <si>
+    <t>[(22, 0), (46, 1), (51, 1), (52, 1), (55, 1), (69, 1), (82, 1), (86, 1), (101, 1), (137, 1), (165, 1), (168, 1), (173, 1), (181, 1), (188, 1), (211, 1), (228, 1), (230, 1), (233, 1), (236, 1), (241, 1), (251, 1), (256, 0), (262, 0), (271, 1), (279, 1), (299, 1), (338, 1), (342, 1), (354, 1), (363, 1), (367, 1), (370, 1), (401, 1), (412, 1), (424, 1), (512, 1), (513, 1), (526, 1), (529, 1), (533, 0), (537, 1), (544, 1), (580, 1), (584, 1), (590, 1), (635, 1), (637, 1), (641, 0), (655, 1), (659, 1), (669, 1), (685, 1), (702, 1), (714, 1), (721, 1), (730, 1), (743, 1), (747, 1), (761, 1), (788, 1), (790, 1), (833, 1), (845, 1), (854, 1), (884, 1), (894, 1), (902, 1), (934, 1), (948, 1), (956, 1), (961, 1), (975, 1), (979, 0), (985, 1), (986, 0), (993, 0), (1008, 1), (1058, 1), (1072, 1), (1084, 1), (1085, 1), (1096, 1), (1161, 1), (1188, 1), (1189, 1), (1190, 1), (1213, 1), (1223, 1), (1224, 1), (1234, 1), (1268, 1), (1278, 1), (1315, 1), (1343, 1), (1357, 1), (1371, 1)]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +87,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,122 +403,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lambda Threshold</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Abstain Instances (Index, True Label)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>0.5</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>0.55</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[(4, 0), (9, 0), (17, 0), (22, 0), (30, 0), (35, 0), (43, 0), (48, 0), (56, 1), (61, 1), (69, 0), (74, 0), (82, 0), (87, 0), (95, 0), (100, 0), (108, 1), (113, 1)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>0.6</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[(1, 0), (3, 0), (4, 0), (9, 0), (14, 0), (16, 0), (17, 0), (22, 0), (29, 0), (30, 0), (35, 0), (42, 0), (43, 0), (48, 0), (53, 1), (55, 1), (56, 1), (61, 1), (65, 0), (66, 0), (68, 0), (69, 0), (74, 0), (81, 0), (82, 0), (87, 0), (94, 0), (95, 0), (100, 0), (107, 1), (108, 1), (113, 1)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>0.65</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[(1, 0), (3, 0), (4, 0), (9, 0), (13, 0), (14, 0), (16, 0), (17, 0), (22, 0), (29, 0), (30, 0), (35, 0), (42, 0), (43, 0), (48, 0), (53, 1), (55, 1), (56, 1), (61, 1), (65, 0), (66, 0), (68, 0), (69, 0), (74, 0), (81, 0), (82, 0), (87, 0), (94, 0), (95, 0), (100, 0), (107, 1), (108, 1), (113, 1)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>0.7</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[(1, 0), (3, 0), (4, 0), (9, 0), (13, 0), (14, 0), (16, 0), (17, 0), (22, 0), (29, 0), (30, 0), (35, 0), (42, 0), (43, 0), (48, 0), (53, 1), (55, 1), (56, 1), (61, 1), (64, 0), (65, 0), (66, 0), (68, 0), (69, 0), (74, 0), (81, 0), (82, 0), (87, 0), (94, 0), (95, 0), (100, 0), (107, 1), (108, 1), (113, 1)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>0.75</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[(1, 0), (3, 0), (4, 0), (9, 0), (13, 0), (14, 0), (16, 0), (17, 0), (22, 0), (29, 0), (30, 0), (35, 0), (42, 0), (43, 0), (48, 0), (52, 1), (53, 1), (55, 1), (56, 1), (61, 1), (63, 0), (64, 0), (65, 0), (66, 0), (68, 0), (69, 0), (74, 0), (81, 0), (82, 0), (87, 0), (94, 0), (95, 0), (100, 0), (107, 1), (108, 1), (113, 1)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>0.8</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[(1, 0), (3, 0), (4, 0), (5, 0), (9, 0), (13, 0), (14, 0), (16, 0), (17, 0), (18, 0), (22, 0), (29, 0), (30, 0), (31, 0), (35, 0), (39, 0), (42, 0), (43, 0), (44, 0), (48, 0), (52, 1), (53, 1), (55, 1), (56, 1), (57, 1), (61, 1), (63, 0), (64, 0), (65, 0), (66, 0), (68, 0), (69, 0), (70, 0), (74, 0), (81, 0), (82, 0), (83, 0), (87, 0), (94, 0), (95, 0), (96, 0), (100, 0), (107, 1), (108, 1), (109, 1), (113, 1)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>0.85</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[(1, 0), (2, 0), (3, 0), (4, 0), (5, 0), (9, 0), (13, 0), (14, 0), (15, 0), (16, 0), (17, 0), (18, 0), (22, 0), (28, 0), (29, 0), (30, 0), (31, 0), (35, 0), (39, 0), (41, 0), (42, 0), (43, 0), (44, 0), (48, 0), (52, 1), (53, 1), (54, 1), (55, 1), (56, 1), (57, 1), (61, 1), (63, 0), (64, 0), (65, 0), (66, 0), (67, 0), (68, 0), (69, 0), (70, 0), (74, 0), (77, 0), (81, 0), (82, 0), (83, 0), (87, 0), (93, 0), (94, 0), (95, 0), (96, 0), (100, 0), (106, 1), (107, 1), (108, 1), (109, 1), (113, 1)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>0.9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[(1, 0), (2, 0), (3, 0), (4, 0), (5, 0), (9, 0), (10, 0), (12, 0), (13, 0), (14, 0), (15, 0), (16, 0), (17, 0), (18, 0), (22, 0), (23, 0), (28, 0), (29, 0), (30, 0), (31, 0), (35, 0), (36, 0), (39, 0), (40, 0), (41, 0), (42, 0), (43, 0), (44, 0), (48, 0), (49, 0), (50, 1), (51, 1), (52, 1), (53, 1), (54, 1), (55, 1), (56, 1), (57, 1), (61, 1), (62, 1), (63, 0), (64, 0), (65, 0), (66, 0), (67, 0), (68, 0), (69, 0), (70, 0), (74, 0), (75, 0), (77, 0), (81, 0), (82, 0), (83, 0), (87, 0), (88, 0), (93, 0), (94, 0), (95, 0), (96, 0), (100, 0), (101, 0), (106, 1), (107, 1), (108, 1), (109, 1), (113, 1), (114, 1)]</t>
-        </is>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances.xlsx
@@ -25,28 +25,28 @@
     <t>[]</t>
   </si>
   <si>
-    <t>[(22, 0), (251, 1), (641, 0), (934, 1), (948, 1), (979, 0), (1058, 1)]</t>
-  </si>
-  <si>
-    <t>[(22, 0), (82, 1), (188, 1), (236, 1), (251, 1), (513, 1), (526, 1), (533, 0), (537, 1), (641, 0), (655, 1), (854, 1), (934, 1), (948, 1), (979, 0), (1058, 1), (1315, 1)]</t>
-  </si>
-  <si>
-    <t>[(22, 0), (82, 1), (168, 1), (173, 1), (188, 1), (236, 1), (251, 1), (279, 1), (512, 1), (513, 1), (526, 1), (533, 0), (537, 1), (590, 1), (635, 1), (641, 0), (655, 1), (747, 1), (845, 1), (854, 1), (934, 1), (948, 1), (961, 1), (979, 0), (1008, 1), (1058, 1), (1096, 1), (1213, 1), (1268, 1), (1315, 1), (1357, 1)]</t>
-  </si>
-  <si>
-    <t>[(22, 0), (69, 1), (82, 1), (101, 1), (137, 1), (165, 1), (168, 1), (173, 1), (188, 1), (236, 1), (241, 1), (251, 1), (256, 0), (279, 1), (363, 1), (512, 1), (513, 1), (526, 1), (533, 0), (537, 1), (584, 1), (590, 1), (635, 1), (641, 0), (655, 1), (659, 1), (747, 1), (788, 1), (845, 1), (854, 1), (894, 1), (934, 1), (948, 1), (956, 1), (961, 1), (975, 1), (979, 0), (985, 1), (1008, 1), (1058, 1), (1084, 1), (1085, 1), (1096, 1), (1188, 1), (1213, 1), (1234, 1), (1268, 1), (1278, 1), (1315, 1), (1357, 1), (1371, 1)]</t>
-  </si>
-  <si>
-    <t>[(22, 0), (69, 1), (82, 1), (86, 1), (101, 1), (137, 1), (165, 1), (168, 1), (173, 1), (188, 1), (236, 1), (241, 1), (251, 1), (256, 0), (279, 1), (338, 1), (363, 1), (512, 1), (513, 1), (526, 1), (533, 0), (537, 1), (580, 1), (584, 1), (590, 1), (635, 1), (641, 0), (655, 1), (659, 1), (702, 1), (714, 1), (747, 1), (761, 1), (788, 1), (845, 1), (854, 1), (884, 1), (894, 1), (934, 1), (948, 1), (956, 1), (961, 1), (975, 1), (979, 0), (985, 1), (986, 0), (1008, 1), (1058, 1), (1084, 1), (1085, 1), (1096, 1), (1161, 1), (1188, 1), (1189, 1), (1190, 1), (1213, 1), (1223, 1), (1224, 1), (1234, 1), (1268, 1), (1278, 1), (1315, 1), (1343, 1), (1357, 1), (1371, 1)]</t>
-  </si>
-  <si>
-    <t>[(22, 0), (52, 1), (55, 1), (69, 1), (82, 1), (86, 1), (101, 1), (137, 1), (165, 1), (168, 1), (173, 1), (188, 1), (211, 1), (233, 1), (236, 1), (241, 1), (251, 1), (256, 0), (271, 1), (279, 1), (299, 1), (338, 1), (363, 1), (367, 1), (401, 1), (424, 1), (512, 1), (513, 1), (526, 1), (529, 1), (533, 0), (537, 1), (580, 1), (584, 1), (590, 1), (635, 1), (637, 1), (641, 0), (655, 1), (659, 1), (669, 1), (702, 1), (714, 1), (747, 1), (761, 1), (788, 1), (845, 1), (854, 1), (884, 1), (894, 1), (902, 1), (934, 1), (948, 1), (956, 1), (961, 1), (975, 1), (979, 0), (985, 1), (986, 0), (993, 0), (1008, 1), (1058, 1), (1072, 1), (1084, 1), (1085, 1), (1096, 1), (1161, 1), (1188, 1), (1189, 1), (1190, 1), (1213, 1), (1223, 1), (1224, 1), (1234, 1), (1268, 1), (1278, 1), (1315, 1), (1343, 1), (1357, 1), (1371, 1)]</t>
-  </si>
-  <si>
-    <t>[(22, 0), (52, 1), (55, 1), (69, 1), (82, 1), (86, 1), (101, 1), (137, 1), (165, 1), (168, 1), (173, 1), (188, 1), (211, 1), (228, 1), (233, 1), (236, 1), (241, 1), (251, 1), (256, 0), (271, 1), (279, 1), (299, 1), (338, 1), (342, 1), (363, 1), (367, 1), (370, 1), (401, 1), (424, 1), (512, 1), (513, 1), (526, 1), (529, 1), (533, 0), (537, 1), (580, 1), (584, 1), (590, 1), (635, 1), (637, 1), (641, 0), (655, 1), (659, 1), (669, 1), (685, 1), (702, 1), (714, 1), (743, 1), (747, 1), (761, 1), (788, 1), (790, 1), (833, 1), (845, 1), (854, 1), (884, 1), (894, 1), (902, 1), (934, 1), (948, 1), (956, 1), (961, 1), (975, 1), (979, 0), (985, 1), (986, 0), (993, 0), (1008, 1), (1058, 1), (1072, 1), (1084, 1), (1085, 1), (1096, 1), (1161, 1), (1188, 1), (1189, 1), (1190, 1), (1213, 1), (1223, 1), (1224, 1), (1234, 1), (1268, 1), (1278, 1), (1315, 1), (1343, 1), (1357, 1), (1371, 1)]</t>
-  </si>
-  <si>
-    <t>[(22, 0), (46, 1), (51, 1), (52, 1), (55, 1), (69, 1), (82, 1), (86, 1), (101, 1), (137, 1), (165, 1), (168, 1), (173, 1), (181, 1), (188, 1), (211, 1), (228, 1), (230, 1), (233, 1), (236, 1), (241, 1), (251, 1), (256, 0), (262, 0), (271, 1), (279, 1), (299, 1), (338, 1), (342, 1), (354, 1), (363, 1), (367, 1), (370, 1), (401, 1), (412, 1), (424, 1), (512, 1), (513, 1), (526, 1), (529, 1), (533, 0), (537, 1), (544, 1), (580, 1), (584, 1), (590, 1), (635, 1), (637, 1), (641, 0), (655, 1), (659, 1), (669, 1), (685, 1), (702, 1), (714, 1), (721, 1), (730, 1), (743, 1), (747, 1), (761, 1), (788, 1), (790, 1), (833, 1), (845, 1), (854, 1), (884, 1), (894, 1), (902, 1), (934, 1), (948, 1), (956, 1), (961, 1), (975, 1), (979, 0), (985, 1), (986, 0), (993, 0), (1008, 1), (1058, 1), (1072, 1), (1084, 1), (1085, 1), (1096, 1), (1161, 1), (1188, 1), (1189, 1), (1190, 1), (1213, 1), (1223, 1), (1224, 1), (1234, 1), (1268, 1), (1278, 1), (1315, 1), (1343, 1), (1357, 1), (1371, 1)]</t>
+    <t>[(129, 1), (188, 0), (243, 1), (321, 0), (357, 1), (364, 1), (388, 0), (681, 1), (707, 0)]</t>
+  </si>
+  <si>
+    <t>[(129, 1), (188, 0), (243, 1), (308, 1), (321, 0), (357, 1), (364, 1), (388, 0), (416, 0), (528, 1), (611, 0), (656, 1), (681, 1), (707, 0)]</t>
+  </si>
+  <si>
+    <t>[(129, 1), (188, 0), (206, 0), (243, 1), (277, 1), (308, 1), (321, 0), (357, 1), (364, 1), (388, 0), (416, 0), (528, 1), (590, 0), (611, 0), (643, 1), (645, 1), (656, 1), (659, 1), (681, 1), (707, 0)]</t>
+  </si>
+  <si>
+    <t>[(41, 1), (129, 1), (188, 0), (206, 0), (243, 1), (271, 1), (277, 1), (308, 1), (321, 0), (327, 1), (357, 1), (364, 1), (388, 0), (394, 1), (416, 0), (528, 1), (580, 0), (590, 0), (611, 0), (643, 1), (645, 1), (656, 1), (659, 1), (681, 1), (707, 0)]</t>
+  </si>
+  <si>
+    <t>[(41, 1), (58, 1), (109, 1), (129, 1), (179, 1), (180, 1), (188, 0), (206, 0), (207, 1), (243, 1), (271, 1), (277, 1), (308, 1), (319, 1), (321, 0), (327, 1), (347, 1), (357, 1), (364, 1), (382, 1), (388, 0), (394, 1), (416, 0), (475, 1), (519, 1), (528, 1), (537, 1), (556, 1), (580, 0), (590, 0), (599, 1), (611, 0), (639, 1), (643, 1), (645, 1), (656, 1), (659, 1), (681, 1), (707, 0), (708, 1)]</t>
+  </si>
+  <si>
+    <t>[(14, 1), (27, 1), (41, 1), (58, 1), (109, 1), (129, 1), (179, 1), (180, 1), (188, 0), (202, 1), (206, 0), (207, 1), (215, 1), (243, 1), (271, 1), (277, 1), (308, 1), (319, 1), (321, 0), (327, 1), (347, 1), (357, 1), (359, 1), (364, 1), (380, 1), (382, 1), (388, 0), (394, 1), (416, 0), (475, 1), (519, 1), (528, 1), (537, 1), (556, 1), (580, 0), (590, 0), (599, 1), (611, 0), (639, 1), (643, 1), (645, 1), (656, 1), (659, 1), (681, 1), (707, 0), (708, 1)]</t>
+  </si>
+  <si>
+    <t>[(14, 1), (27, 1), (41, 1), (58, 1), (106, 1), (109, 1), (129, 1), (179, 1), (180, 1), (188, 0), (202, 1), (206, 0), (207, 1), (215, 1), (243, 1), (271, 1), (277, 1), (289, 1), (308, 1), (319, 1), (321, 0), (327, 1), (333, 1), (341, 1), (347, 1), (357, 1), (359, 1), (364, 1), (380, 1), (382, 1), (388, 0), (394, 1), (398, 1), (416, 0), (475, 1), (519, 1), (528, 1), (537, 1), (556, 1), (580, 0), (590, 0), (599, 1), (611, 0), (639, 1), (643, 1), (645, 1), (656, 1), (659, 1), (681, 1), (707, 0), (708, 1)]</t>
+  </si>
+  <si>
+    <t>[(14, 1), (27, 1), (41, 1), (58, 1), (106, 1), (109, 1), (129, 1), (179, 1), (180, 1), (188, 0), (202, 1), (206, 0), (207, 1), (215, 1), (243, 1), (271, 1), (277, 1), (289, 1), (308, 1), (319, 1), (321, 0), (327, 1), (333, 1), (341, 1), (347, 1), (357, 1), (359, 1), (364, 1), (380, 1), (382, 1), (388, 0), (394, 1), (396, 1), (398, 1), (416, 0), (475, 1), (478, 1), (516, 1), (519, 1), (528, 1), (537, 1), (556, 1), (580, 0), (590, 0), (599, 1), (611, 0), (639, 1), (643, 1), (645, 1), (656, 1), (659, 1), (681, 1), (707, 0), (708, 1)]</t>
   </si>
 </sst>
 </file>

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -25,28 +25,25 @@
     <t>[]</t>
   </si>
   <si>
-    <t>[(129, 1), (188, 0), (243, 1), (321, 0), (357, 1), (364, 1), (388, 0), (681, 1), (707, 0)]</t>
-  </si>
-  <si>
-    <t>[(129, 1), (188, 0), (243, 1), (308, 1), (321, 0), (357, 1), (364, 1), (388, 0), (416, 0), (528, 1), (611, 0), (656, 1), (681, 1), (707, 0)]</t>
-  </si>
-  <si>
-    <t>[(129, 1), (188, 0), (206, 0), (243, 1), (277, 1), (308, 1), (321, 0), (357, 1), (364, 1), (388, 0), (416, 0), (528, 1), (590, 0), (611, 0), (643, 1), (645, 1), (656, 1), (659, 1), (681, 1), (707, 0)]</t>
-  </si>
-  <si>
-    <t>[(41, 1), (129, 1), (188, 0), (206, 0), (243, 1), (271, 1), (277, 1), (308, 1), (321, 0), (327, 1), (357, 1), (364, 1), (388, 0), (394, 1), (416, 0), (528, 1), (580, 0), (590, 0), (611, 0), (643, 1), (645, 1), (656, 1), (659, 1), (681, 1), (707, 0)]</t>
-  </si>
-  <si>
-    <t>[(41, 1), (58, 1), (109, 1), (129, 1), (179, 1), (180, 1), (188, 0), (206, 0), (207, 1), (243, 1), (271, 1), (277, 1), (308, 1), (319, 1), (321, 0), (327, 1), (347, 1), (357, 1), (364, 1), (382, 1), (388, 0), (394, 1), (416, 0), (475, 1), (519, 1), (528, 1), (537, 1), (556, 1), (580, 0), (590, 0), (599, 1), (611, 0), (639, 1), (643, 1), (645, 1), (656, 1), (659, 1), (681, 1), (707, 0), (708, 1)]</t>
-  </si>
-  <si>
-    <t>[(14, 1), (27, 1), (41, 1), (58, 1), (109, 1), (129, 1), (179, 1), (180, 1), (188, 0), (202, 1), (206, 0), (207, 1), (215, 1), (243, 1), (271, 1), (277, 1), (308, 1), (319, 1), (321, 0), (327, 1), (347, 1), (357, 1), (359, 1), (364, 1), (380, 1), (382, 1), (388, 0), (394, 1), (416, 0), (475, 1), (519, 1), (528, 1), (537, 1), (556, 1), (580, 0), (590, 0), (599, 1), (611, 0), (639, 1), (643, 1), (645, 1), (656, 1), (659, 1), (681, 1), (707, 0), (708, 1)]</t>
-  </si>
-  <si>
-    <t>[(14, 1), (27, 1), (41, 1), (58, 1), (106, 1), (109, 1), (129, 1), (179, 1), (180, 1), (188, 0), (202, 1), (206, 0), (207, 1), (215, 1), (243, 1), (271, 1), (277, 1), (289, 1), (308, 1), (319, 1), (321, 0), (327, 1), (333, 1), (341, 1), (347, 1), (357, 1), (359, 1), (364, 1), (380, 1), (382, 1), (388, 0), (394, 1), (398, 1), (416, 0), (475, 1), (519, 1), (528, 1), (537, 1), (556, 1), (580, 0), (590, 0), (599, 1), (611, 0), (639, 1), (643, 1), (645, 1), (656, 1), (659, 1), (681, 1), (707, 0), (708, 1)]</t>
-  </si>
-  <si>
-    <t>[(14, 1), (27, 1), (41, 1), (58, 1), (106, 1), (109, 1), (129, 1), (179, 1), (180, 1), (188, 0), (202, 1), (206, 0), (207, 1), (215, 1), (243, 1), (271, 1), (277, 1), (289, 1), (308, 1), (319, 1), (321, 0), (327, 1), (333, 1), (341, 1), (347, 1), (357, 1), (359, 1), (364, 1), (380, 1), (382, 1), (388, 0), (394, 1), (396, 1), (398, 1), (416, 0), (475, 1), (478, 1), (516, 1), (519, 1), (528, 1), (537, 1), (556, 1), (580, 0), (590, 0), (599, 1), (611, 0), (639, 1), (643, 1), (645, 1), (656, 1), (659, 1), (681, 1), (707, 0), (708, 1)]</t>
+    <t>[(160, 0), (447, 0)]</t>
+  </si>
+  <si>
+    <t>[(34, 0), (160, 0), (341, 0), (447, 0)]</t>
+  </si>
+  <si>
+    <t>[(34, 0), (160, 0), (169, 1), (234, 0), (277, 1), (298, 1), (315, 1), (341, 0), (366, 1), (427, 1), (443, 1), (447, 0)]</t>
+  </si>
+  <si>
+    <t>[(33, 1), (34, 0), (80, 1), (137, 1), (160, 0), (169, 1), (194, 1), (234, 0), (277, 1), (298, 1), (315, 1), (341, 0), (366, 1), (382, 1), (390, 1), (417, 1), (427, 1), (443, 1), (447, 0)]</t>
+  </si>
+  <si>
+    <t>[(4, 1), (33, 1), (34, 0), (70, 1), (80, 1), (98, 1), (110, 1), (137, 1), (139, 1), (147, 1), (160, 0), (169, 1), (194, 1), (198, 1), (234, 0), (277, 1), (298, 1), (315, 1), (338, 1), (341, 0), (366, 1), (382, 1), (383, 1), (390, 1), (417, 1), (427, 1), (443, 1), (447, 0)]</t>
+  </si>
+  <si>
+    <t>[(4, 1), (33, 1), (34, 0), (37, 1), (70, 1), (80, 1), (98, 1), (110, 1), (137, 1), (139, 1), (147, 1), (160, 0), (169, 1), (194, 1), (198, 1), (234, 0), (277, 1), (298, 1), (303, 1), (315, 1), (338, 1), (341, 0), (366, 1), (382, 1), (383, 1), (390, 1), (417, 1), (427, 1), (443, 1), (447, 0)]</t>
+  </si>
+  <si>
+    <t>[(4, 1), (33, 1), (34, 0), (37, 1), (70, 1), (80, 1), (98, 1), (110, 1), (137, 1), (139, 1), (147, 1), (151, 1), (160, 0), (169, 1), (185, 1), (193, 1), (194, 1), (198, 1), (234, 0), (247, 1), (277, 1), (298, 1), (303, 1), (315, 1), (338, 1), (341, 0), (366, 1), (382, 1), (383, 1), (390, 1), (417, 1), (427, 1), (443, 1), (447, 0)]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +484,7 @@
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances.xlsx
@@ -25,25 +25,25 @@
     <t>[]</t>
   </si>
   <si>
-    <t>[(160, 0), (447, 0)]</t>
-  </si>
-  <si>
-    <t>[(34, 0), (160, 0), (341, 0), (447, 0)]</t>
-  </si>
-  <si>
-    <t>[(34, 0), (160, 0), (169, 1), (234, 0), (277, 1), (298, 1), (315, 1), (341, 0), (366, 1), (427, 1), (443, 1), (447, 0)]</t>
-  </si>
-  <si>
-    <t>[(33, 1), (34, 0), (80, 1), (137, 1), (160, 0), (169, 1), (194, 1), (234, 0), (277, 1), (298, 1), (315, 1), (341, 0), (366, 1), (382, 1), (390, 1), (417, 1), (427, 1), (443, 1), (447, 0)]</t>
-  </si>
-  <si>
-    <t>[(4, 1), (33, 1), (34, 0), (70, 1), (80, 1), (98, 1), (110, 1), (137, 1), (139, 1), (147, 1), (160, 0), (169, 1), (194, 1), (198, 1), (234, 0), (277, 1), (298, 1), (315, 1), (338, 1), (341, 0), (366, 1), (382, 1), (383, 1), (390, 1), (417, 1), (427, 1), (443, 1), (447, 0)]</t>
-  </si>
-  <si>
-    <t>[(4, 1), (33, 1), (34, 0), (37, 1), (70, 1), (80, 1), (98, 1), (110, 1), (137, 1), (139, 1), (147, 1), (160, 0), (169, 1), (194, 1), (198, 1), (234, 0), (277, 1), (298, 1), (303, 1), (315, 1), (338, 1), (341, 0), (366, 1), (382, 1), (383, 1), (390, 1), (417, 1), (427, 1), (443, 1), (447, 0)]</t>
-  </si>
-  <si>
-    <t>[(4, 1), (33, 1), (34, 0), (37, 1), (70, 1), (80, 1), (98, 1), (110, 1), (137, 1), (139, 1), (147, 1), (151, 1), (160, 0), (169, 1), (185, 1), (193, 1), (194, 1), (198, 1), (234, 0), (247, 1), (277, 1), (298, 1), (303, 1), (315, 1), (338, 1), (341, 0), (366, 1), (382, 1), (383, 1), (390, 1), (417, 1), (427, 1), (443, 1), (447, 0)]</t>
+    <t>[(63, 0), (131, 0), (425, 1), (491, 1)]</t>
+  </si>
+  <si>
+    <t>[(25, 1), (63, 0), (85, 1), (113, 1), (131, 0), (192, 1), (425, 1), (442, 1), (491, 1)]</t>
+  </si>
+  <si>
+    <t>[(25, 1), (63, 0), (85, 1), (113, 1), (131, 0), (147, 1), (153, 1), (168, 1), (192, 1), (227, 1), (341, 0), (422, 1), (425, 1), (442, 1), (491, 1), (526, 1)]</t>
+  </si>
+  <si>
+    <t>[(16, 1), (17, 1), (25, 1), (49, 1), (63, 0), (85, 1), (113, 1), (131, 0), (147, 1), (153, 1), (168, 1), (192, 1), (227, 1), (248, 1), (341, 0), (422, 1), (425, 1), (442, 1), (487, 1), (491, 1), (526, 1)]</t>
+  </si>
+  <si>
+    <t>[(16, 1), (17, 1), (25, 1), (49, 1), (63, 0), (85, 1), (113, 1), (131, 0), (147, 1), (153, 1), (168, 1), (192, 1), (199, 1), (227, 1), (228, 1), (248, 1), (296, 1), (341, 0), (379, 1), (422, 1), (425, 1), (442, 1), (453, 1), (487, 1), (491, 1), (526, 1)]</t>
+  </si>
+  <si>
+    <t>[(16, 1), (17, 1), (25, 1), (49, 1), (63, 0), (85, 1), (113, 1), (131, 0), (147, 1), (153, 1), (168, 1), (192, 1), (199, 1), (227, 1), (228, 1), (248, 1), (296, 1), (341, 0), (379, 1), (422, 1), (425, 1), (442, 1), (453, 1), (463, 1), (487, 1), (491, 1), (526, 1), (543, 1)]</t>
+  </si>
+  <si>
+    <t>[(16, 1), (17, 1), (25, 1), (49, 1), (63, 0), (66, 1), (85, 1), (113, 1), (131, 0), (147, 1), (153, 1), (168, 1), (192, 1), (199, 1), (227, 1), (228, 1), (248, 1), (296, 1), (341, 0), (379, 1), (422, 1), (425, 1), (442, 1), (453, 1), (463, 1), (487, 1), (491, 1), (526, 1), (543, 1)]</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -444,7 +444,7 @@
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -452,7 +452,7 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -460,7 +460,7 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -468,7 +468,7 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -476,7 +476,7 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -25,25 +25,28 @@
     <t>[]</t>
   </si>
   <si>
-    <t>[(63, 0), (131, 0), (425, 1), (491, 1)]</t>
-  </si>
-  <si>
-    <t>[(25, 1), (63, 0), (85, 1), (113, 1), (131, 0), (192, 1), (425, 1), (442, 1), (491, 1)]</t>
-  </si>
-  <si>
-    <t>[(25, 1), (63, 0), (85, 1), (113, 1), (131, 0), (147, 1), (153, 1), (168, 1), (192, 1), (227, 1), (341, 0), (422, 1), (425, 1), (442, 1), (491, 1), (526, 1)]</t>
-  </si>
-  <si>
-    <t>[(16, 1), (17, 1), (25, 1), (49, 1), (63, 0), (85, 1), (113, 1), (131, 0), (147, 1), (153, 1), (168, 1), (192, 1), (227, 1), (248, 1), (341, 0), (422, 1), (425, 1), (442, 1), (487, 1), (491, 1), (526, 1)]</t>
-  </si>
-  <si>
-    <t>[(16, 1), (17, 1), (25, 1), (49, 1), (63, 0), (85, 1), (113, 1), (131, 0), (147, 1), (153, 1), (168, 1), (192, 1), (199, 1), (227, 1), (228, 1), (248, 1), (296, 1), (341, 0), (379, 1), (422, 1), (425, 1), (442, 1), (453, 1), (487, 1), (491, 1), (526, 1)]</t>
-  </si>
-  <si>
-    <t>[(16, 1), (17, 1), (25, 1), (49, 1), (63, 0), (85, 1), (113, 1), (131, 0), (147, 1), (153, 1), (168, 1), (192, 1), (199, 1), (227, 1), (228, 1), (248, 1), (296, 1), (341, 0), (379, 1), (422, 1), (425, 1), (442, 1), (453, 1), (463, 1), (487, 1), (491, 1), (526, 1), (543, 1)]</t>
-  </si>
-  <si>
-    <t>[(16, 1), (17, 1), (25, 1), (49, 1), (63, 0), (66, 1), (85, 1), (113, 1), (131, 0), (147, 1), (153, 1), (168, 1), (192, 1), (199, 1), (227, 1), (228, 1), (248, 1), (296, 1), (341, 0), (379, 1), (422, 1), (425, 1), (442, 1), (453, 1), (463, 1), (487, 1), (491, 1), (526, 1), (543, 1)]</t>
+    <t>[(63, 0), (400, 1)]</t>
+  </si>
+  <si>
+    <t>[(16, 1), (63, 0), (400, 1), (1041, 1), (1535, 0)]</t>
+  </si>
+  <si>
+    <t>[(16, 1), (63, 0), (212, 1), (360, 1), (400, 1), (679, 1), (723, 1), (964, 1), (1041, 1), (1282, 1), (1451, 1), (1535, 0)]</t>
+  </si>
+  <si>
+    <t>[(16, 1), (40, 1), (63, 0), (179, 1), (212, 1), (360, 1), (375, 1), (387, 1), (400, 1), (416, 1), (679, 1), (723, 1), (964, 1), (1025, 1), (1034, 1), (1041, 1), (1280, 1), (1282, 1), (1353, 1), (1451, 1), (1498, 1), (1535, 0)]</t>
+  </si>
+  <si>
+    <t>[(16, 1), (40, 1), (63, 0), (79, 1), (162, 1), (179, 1), (212, 1), (360, 1), (375, 1), (387, 1), (400, 1), (416, 1), (679, 1), (714, 1), (723, 1), (759, 1), (964, 1), (973, 1), (999, 1), (1025, 1), (1034, 1), (1041, 1), (1113, 1), (1127, 1), (1280, 1), (1282, 1), (1353, 1), (1366, 1), (1451, 1), (1498, 1), (1522, 1), (1535, 0), (1593, 1)]</t>
+  </si>
+  <si>
+    <t>[(16, 1), (40, 1), (63, 0), (79, 1), (99, 1), (134, 1), (157, 1), (161, 1), (162, 1), (179, 1), (212, 1), (301, 1), (360, 1), (375, 1), (387, 1), (400, 1), (410, 1), (416, 1), (536, 1), (621, 1), (663, 1), (670, 1), (679, 1), (714, 1), (723, 1), (748, 1), (759, 1), (766, 1), (862, 1), (955, 1), (964, 1), (969, 1), (973, 1), (999, 1), (1025, 1), (1031, 1), (1034, 1), (1041, 1), (1113, 1), (1127, 1), (1131, 1), (1145, 1), (1171, 1), (1191, 1), (1228, 1), (1280, 1), (1282, 1), (1341, 1), (1353, 1), (1366, 1), (1389, 1), (1451, 1), (1455, 1), (1498, 1), (1522, 1), (1535, 0), (1593, 1), (1626, 1), (1635, 1), (1643, 1)]</t>
+  </si>
+  <si>
+    <t>[(2, 1), (16, 1), (40, 1), (46, 1), (63, 0), (79, 1), (99, 1), (134, 1), (140, 1), (157, 1), (161, 1), (162, 1), (179, 1), (212, 1), (222, 1), (262, 1), (301, 1), (360, 1), (375, 1), (387, 1), (400, 1), (410, 1), (416, 1), (445, 1), (501, 1), (536, 1), (621, 1), (625, 1), (641, 1), (644, 1), (663, 1), (670, 1), (679, 1), (714, 1), (723, 1), (748, 1), (759, 1), (766, 1), (862, 1), (955, 1), (964, 1), (969, 1), (973, 1), (999, 1), (1025, 1), (1031, 1), (1034, 1), (1041, 1), (1099, 1), (1113, 1), (1123, 1), (1127, 1), (1131, 1), (1145, 1), (1171, 1), (1191, 1), (1228, 1), (1280, 1), (1282, 1), (1285, 1), (1341, 1), (1353, 1), (1366, 1), (1389, 1), (1407, 1), (1451, 1), (1455, 1), (1498, 1), (1519, 1), (1522, 1), (1535, 0), (1593, 1), (1618, 1), (1626, 1), (1635, 1), (1643, 1), (1670, 1)]</t>
+  </si>
+  <si>
+    <t>[(2, 1), (16, 1), (40, 1), (46, 1), (63, 0), (79, 1), (99, 1), (134, 1), (140, 1), (157, 1), (161, 1), (162, 1), (179, 1), (212, 1), (222, 1), (262, 1), (301, 1), (360, 1), (375, 1), (387, 1), (400, 1), (410, 1), (416, 1), (444, 1), (445, 1), (501, 1), (536, 1), (621, 1), (625, 1), (641, 1), (644, 1), (660, 1), (663, 1), (670, 1), (679, 1), (714, 1), (723, 1), (748, 1), (759, 1), (766, 1), (862, 1), (955, 1), (964, 1), (969, 1), (973, 1), (999, 1), (1025, 1), (1031, 1), (1034, 1), (1041, 1), (1067, 1), (1099, 1), (1113, 1), (1123, 1), (1127, 1), (1131, 1), (1145, 1), (1171, 1), (1191, 1), (1228, 1), (1280, 1), (1282, 1), (1285, 1), (1341, 1), (1353, 1), (1366, 1), (1389, 1), (1407, 1), (1425, 1), (1451, 1), (1455, 1), (1498, 1), (1519, 1), (1522, 1), (1535, 0), (1544, 1), (1593, 1), (1618, 1), (1624, 0), (1626, 1), (1635, 1), (1642, 1), (1643, 1), (1670, 1), (1685, 1)]</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -444,7 +447,7 @@
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -452,7 +455,7 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -460,7 +463,7 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -468,7 +471,7 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -476,7 +479,7 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -484,7 +487,7 @@
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances.xlsx
@@ -25,28 +25,28 @@
     <t>[]</t>
   </si>
   <si>
-    <t>[(63, 0), (400, 1)]</t>
-  </si>
-  <si>
-    <t>[(16, 1), (63, 0), (400, 1), (1041, 1), (1535, 0)]</t>
-  </si>
-  <si>
-    <t>[(16, 1), (63, 0), (212, 1), (360, 1), (400, 1), (679, 1), (723, 1), (964, 1), (1041, 1), (1282, 1), (1451, 1), (1535, 0)]</t>
-  </si>
-  <si>
-    <t>[(16, 1), (40, 1), (63, 0), (179, 1), (212, 1), (360, 1), (375, 1), (387, 1), (400, 1), (416, 1), (679, 1), (723, 1), (964, 1), (1025, 1), (1034, 1), (1041, 1), (1280, 1), (1282, 1), (1353, 1), (1451, 1), (1498, 1), (1535, 0)]</t>
-  </si>
-  <si>
-    <t>[(16, 1), (40, 1), (63, 0), (79, 1), (162, 1), (179, 1), (212, 1), (360, 1), (375, 1), (387, 1), (400, 1), (416, 1), (679, 1), (714, 1), (723, 1), (759, 1), (964, 1), (973, 1), (999, 1), (1025, 1), (1034, 1), (1041, 1), (1113, 1), (1127, 1), (1280, 1), (1282, 1), (1353, 1), (1366, 1), (1451, 1), (1498, 1), (1522, 1), (1535, 0), (1593, 1)]</t>
-  </si>
-  <si>
-    <t>[(16, 1), (40, 1), (63, 0), (79, 1), (99, 1), (134, 1), (157, 1), (161, 1), (162, 1), (179, 1), (212, 1), (301, 1), (360, 1), (375, 1), (387, 1), (400, 1), (410, 1), (416, 1), (536, 1), (621, 1), (663, 1), (670, 1), (679, 1), (714, 1), (723, 1), (748, 1), (759, 1), (766, 1), (862, 1), (955, 1), (964, 1), (969, 1), (973, 1), (999, 1), (1025, 1), (1031, 1), (1034, 1), (1041, 1), (1113, 1), (1127, 1), (1131, 1), (1145, 1), (1171, 1), (1191, 1), (1228, 1), (1280, 1), (1282, 1), (1341, 1), (1353, 1), (1366, 1), (1389, 1), (1451, 1), (1455, 1), (1498, 1), (1522, 1), (1535, 0), (1593, 1), (1626, 1), (1635, 1), (1643, 1)]</t>
-  </si>
-  <si>
-    <t>[(2, 1), (16, 1), (40, 1), (46, 1), (63, 0), (79, 1), (99, 1), (134, 1), (140, 1), (157, 1), (161, 1), (162, 1), (179, 1), (212, 1), (222, 1), (262, 1), (301, 1), (360, 1), (375, 1), (387, 1), (400, 1), (410, 1), (416, 1), (445, 1), (501, 1), (536, 1), (621, 1), (625, 1), (641, 1), (644, 1), (663, 1), (670, 1), (679, 1), (714, 1), (723, 1), (748, 1), (759, 1), (766, 1), (862, 1), (955, 1), (964, 1), (969, 1), (973, 1), (999, 1), (1025, 1), (1031, 1), (1034, 1), (1041, 1), (1099, 1), (1113, 1), (1123, 1), (1127, 1), (1131, 1), (1145, 1), (1171, 1), (1191, 1), (1228, 1), (1280, 1), (1282, 1), (1285, 1), (1341, 1), (1353, 1), (1366, 1), (1389, 1), (1407, 1), (1451, 1), (1455, 1), (1498, 1), (1519, 1), (1522, 1), (1535, 0), (1593, 1), (1618, 1), (1626, 1), (1635, 1), (1643, 1), (1670, 1)]</t>
-  </si>
-  <si>
-    <t>[(2, 1), (16, 1), (40, 1), (46, 1), (63, 0), (79, 1), (99, 1), (134, 1), (140, 1), (157, 1), (161, 1), (162, 1), (179, 1), (212, 1), (222, 1), (262, 1), (301, 1), (360, 1), (375, 1), (387, 1), (400, 1), (410, 1), (416, 1), (444, 1), (445, 1), (501, 1), (536, 1), (621, 1), (625, 1), (641, 1), (644, 1), (660, 1), (663, 1), (670, 1), (679, 1), (714, 1), (723, 1), (748, 1), (759, 1), (766, 1), (862, 1), (955, 1), (964, 1), (969, 1), (973, 1), (999, 1), (1025, 1), (1031, 1), (1034, 1), (1041, 1), (1067, 1), (1099, 1), (1113, 1), (1123, 1), (1127, 1), (1131, 1), (1145, 1), (1171, 1), (1191, 1), (1228, 1), (1280, 1), (1282, 1), (1285, 1), (1341, 1), (1353, 1), (1366, 1), (1389, 1), (1407, 1), (1425, 1), (1451, 1), (1455, 1), (1498, 1), (1519, 1), (1522, 1), (1535, 0), (1544, 1), (1593, 1), (1618, 1), (1624, 0), (1626, 1), (1635, 1), (1642, 1), (1643, 1), (1670, 1), (1685, 1)]</t>
+    <t>[(529, array([1])), (1158, array([1])), (1338, array([0])), (1569, array([1])), (1976, array([1])), (2070, array([1])), (2116, array([1])), (2658, array([0])), (2733, array([1])), (3069, array([1])), (3593, array([1])), (3746, array([1])), (3785, array([1])), (3997, array([1])), (4258, array([1])), (4274, array([0])), (5537, array([0])), (5555, array([1])), (5565, array([1])), (5695, array([1])), (6282, array([0])), (6340, array([1])), (6472, array([0])), (6493, array([0])), (6571, array([0])), (6786, array([1])), (6888, array([1])), (6903, array([0])), (7005, array([1])), (7178, array([0])), (7181, array([1])), (7215, array([1])), (7388, array([1])), (7415, array([0])), (7596, array([0])), (7791, array([0])), (8166, array([1])), (8227, array([1])), (8456, array([1])), (8644, array([1])), (8659, array([0])), (8694, array([1])), (9160, array([1])), (9383, array([0])), (9739, array([0])), (10097, array([1])), (10326, array([0])), (10347, array([1])), (10404, array([1])), (10507, array([1])), (10530, array([1])), (10662, array([0])), (10677, array([1])), (10715, array([1])), (10732, array([1])), (11232, array([1])), (11245, array([1])), (11259, array([1])), (11290, array([1])), (11601, array([1])), (12120, array([1])), (12323, array([0])), (12353, array([1])), (12956, array([1])), (13039, array([0])), (13122, array([0])), (13275, array([1])), (13330, array([1])), (13351, array([0])), (13945, array([1])), (14223, array([0])), (14314, array([0])), (14527, array([1])), (14923, array([0])), (14999, array([1])), (15030, array([1])), (15252, array([1])), (15274, array([1])), (15410, array([1])), (15536, array([0])), (15757, array([0])), (16048, array([0])), (16243, array([1])), (16399, array([1])), (16403, array([1])), (16407, array([0])), (16515, array([0])), (16585, array([1])), (16623, array([1])), (17073, array([1])), (17167, array([0])), (17221, array([1])), (17331, array([1])), (17352, array([0])), (17389, array([0])), (17438, array([1])), (17779, array([1])), (18096, array([1])), (18121, array([1])), (18184, array([0])), (18230, array([1])), (18299, array([1])), (18532, array([0])), (18535, array([1])), (18765, array([0])), (18788, array([0])), (18928, array([0])), (19005, array([0])), (19068, array([1])), (19275, array([0])), (19318, array([1])), (19625, array([0])), (20023, array([1])), (20324, array([0])), (20454, array([1])), (20725, array([1])), (20806, array([0])), (20851, array([1])), (21084, array([1])), (21154, array([1])), (21230, array([0])), (21301, array([1])), (21362, array([0])), (21411, array([1])), (21833, array([0])), (22128, array([0])), (22215, array([1])), (22220, array([0])), (22743, array([1])), (22835, array([0])), (22843, array([1])), (22854, array([1])), (23506, array([1])), (23512, array([0])), (23627, array([0])), (23843, array([0])), (24022, array([1])), (24178, array([1])), (24204, array([1])), (24296, array([1])), (24540, array([0])), (24579, array([1])), (24649, array([1])), (24857, array([0])), (24916, array([1])), (25133, array([0])), (25398, array([1])), (25858, array([1])), (26003, array([1])), (26085, array([1])), (26125, array([1])), (26303, array([1])), (26536, array([1])), (26583, array([1])), (26623, array([0])), (26714, array([0])), (27025, array([1])), (27052, array([1])), (27066, array([1])), (27118, array([1])), (27127, array([0])), (27192, array([0])), (27483, array([1])), (27741, array([0])), (27749, array([0])), (27790, array([1])), (28256, array([1])), (28410, array([1])), (28596, array([1])), (28650, array([1])), (28773, array([1])), (29133, array([0])), (29597, array([1])), (29602, array([0])), (29695, array([1])), (29939, array([1])), (30149, array([1])), (30478, array([1])), (30529, array([1])), (30758, array([0])), (30792, array([1])), (30823, array([1])), (30874, array([1])), (30886, array([1])), (31102, array([1])), (31249, array([0])), (31334, array([1])), (31352, array([1])), (31643, array([1])), (31723, array([1])), (31940, array([1]))]</t>
+  </si>
+  <si>
+    <t>[(230, array([1])), (232, array([0])), (265, array([0])), (529, array([1])), (675, array([1])), (996, array([1])), (1002, array([1])), (1107, array([0])), (1139, array([1])), (1158, array([1])), (1195, array([1])), (1204, array([0])), (1268, array([1])), (1338, array([0])), (1373, array([1])), (1532, array([0])), (1569, array([1])), (1593, array([0])), (1632, array([1])), (1818, array([0])), (1929, array([0])), (1976, array([1])), (2055, array([0])), (2070, array([1])), (2116, array([1])), (2214, array([1])), (2363, array([0])), (2561, array([1])), (2657, array([1])), (2658, array([0])), (2733, array([1])), (2750, array([1])), (2932, array([1])), (3049, array([1])), (3069, array([1])), (3161, array([1])), (3165, array([1])), (3251, array([0])), (3412, array([1])), (3571, array([1])), (3580, array([1])), (3590, array([1])), (3593, array([1])), (3746, array([1])), (3785, array([1])), (3788, array([1])), (3816, array([1])), (3864, array([1])), (3874, array([0])), (3876, array([1])), (3997, array([1])), (4018, array([1])), (4114, array([1])), (4258, array([1])), (4274, array([0])), (4992, array([1])), (5174, array([1])), (5253, array([1])), (5316, array([1])), (5420, array([1])), (5488, array([1])), (5537, array([0])), (5555, array([1])), (5565, array([1])), (5695, array([1])), (5743, array([1])), (5786, array([0])), (5886, array([0])), (5991, array([1])), (6282, array([0])), (6340, array([1])), (6376, array([1])), (6472, array([0])), (6493, array([0])), (6571, array([0])), (6582, array([1])), (6751, array([0])), (6759, array([0])), (6786, array([1])), (6888, array([1])), (6903, array([0])), (7005, array([1])), (7178, array([0])), (7181, array([1])), (7215, array([1])), (7331, array([1])), (7388, array([1])), (7415, array([0])), (7596, array([0])), (7673, array([0])), (7791, array([0])), (7839, array([0])), (8107, array([1])), (8166, array([1])), (8227, array([1])), (8456, array([1])), (8644, array([1])), (8659, array([0])), (8694, array([1])), (8928, array([1])), (9022, array([1])), (9043, array([1])), (9160, array([1])), (9244, array([0])), (9383, array([0])), (9739, array([0])), (9818, array([0])), (9873, array([0])), (9917, array([0])), (9986, array([1])), (10097, array([1])), (10129, array([0])), (10258, array([0])), (10326, array([0])), (10347, array([1])), (10404, array([1])), (10456, array([1])), (10461, array([1])), (10507, array([1])), (10530, array([1])), (10662, array([0])), (10677, array([1])), (10715, array([1])), (10732, array([1])), (10888, array([0])), (10993, array([1])), (11200, array([1])), (11232, array([1])), (11245, array([1])), (11259, array([1])), (11290, array([1])), (11601, array([1])), (11693, array([1])), (11739, array([1])), (11821, array([0])), (12070, array([1])), (12120, array([1])), (12255, array([1])), (12293, array([1])), (12323, array([0])), (12353, array([1])), (12467, array([1])), (12762, array([0])), (12785, array([0])), (12956, array([1])), (12994, array([1])), (13026, array([1])), (13039, array([0])), (13122, array([0])), (13140, array([1])), (13275, array([1])), (13330, array([1])), (13351, array([0])), (13352, array([1])), (13413, array([1])), (13448, array([1])), (13476, array([1])), (13780, array([1])), (13804, array([0])), (13940, array([1])), (13945, array([1])), (14143, array([1])), (14223, array([0])), (14314, array([0])), (14384, array([0])), (14413, array([0])), (14527, array([1])), (14683, array([1])), (14684, array([1])), (14918, array([1])), (14923, array([0])), (14999, array([1])), (15030, array([1])), (15155, array([0])), (15202, array([1])), (15240, array([0])), (15252, array([1])), (15274, array([1])), (15352, array([1])), (15410, array([1])), (15536, array([0])), (15628, array([0])), (15757, array([0])), (15834, array([1])), (15872, array([0])), (16048, array([0])), (16074, array([1])), (16208, array([1])), (16243, array([1])), (16244, array([1])), (16257, array([1])), (16316, array([1])), (16399, array([1])), (16403, array([1])), (16407, array([0])), (16515, array([0])), (16543, array([1])), (16585, array([1])), (16623, array([1])), (16667, array([1])), (16769, array([1])), (17064, array([1])), (17073, array([1])), (17123, array([0])), (17134, array([1])), (17167, array([0])), (17221, array([1])), (17331, array([1])), (17352, array([0])), (17389, array([0])), (17412, array([1])), (17433, array([0])), (17438, array([1])), (17606, array([1])), (17779, array([1])), (18091, array([1])), (18096, array([1])), (18121, array([1])), (18134, array([0])), (18154, array([1])), (18184, array([0])), (18230, array([1])), (18299, array([1])), (18312, array([1])), (18532, array([0])), (18535, array([1])), (18722, array([0])), (18765, array([0])), (18788, array([0])), (18805, array([1])), (18928, array([0])), (19005, array([0])), (19068, array([1])), (19102, array([1])), (19190, array([1])), (19275, array([0])), (19318, array([1])), (19386, array([1])), (19625, array([0])), (19627, array([0])), (19637, array([1])), (19724, array([1])), (19818, array([0])), (19942, array([1])), (19977, array([1])), (20023, array([1])), (20202, array([1])), (20294, array([1])), (20324, array([0])), (20377, array([0])), (20454, array([1])), (20725, array([1])), (20806, array([0])), (20851, array([1])), (20852, array([1])), (21084, array([1])), (21154, array([1])), (21157, array([1])), (21230, array([0])), (21286, array([1])), (21301, array([1])), (21317, array([0])), (21362, array([0])), (21411, array([1])), (21500, array([1])), (21524, array([1])), (21621, array([1])), (21833, array([0])), (21893, array([1])), (22006, array([1])), (22008, array([1])), (22128, array([0])), (22152, array([0])), (22195, array([1])), (22215, array([1])), (22220, array([0])), (22279, array([1])), (22561, array([1])), (22743, array([1])), (22835, array([0])), (22841, array([1])), (22843, array([1])), (22854, array([1])), (22961, array([1])), (22980, array([1])), (23174, array([0])), (23311, array([1])), (23395, array([1])), (23408, array([1])), (23506, array([1])), (23512, array([0])), (23627, array([0])), (23634, array([1])), (23635, array([1])), (23648, array([1])), (23725, array([1])), (23843, array([0])), (23950, array([0])), (24022, array([1])), (24144, array([1])), (24178, array([1])), (24204, array([1])), (24296, array([1])), (24408, array([1])), (24540, array([0])), (24552, array([1])), (24579, array([1])), (24606, array([1])), (24649, array([1])), (24699, array([1])), (24707, array([1])), (24857, array([0])), (24916, array([1])), (25133, array([0])), (25148, array([1])), (25398, array([1])), (25492, array([1])), (25578, array([1])), (25773, array([1])), (25837, array([0])), (25858, array([1])), (25862, array([1])), (25906, array([0])), (26003, array([1])), (26046, array([1])), (26058, array([1])), (26085, array([1])), (26089, array([1])), (26125, array([1])), (26286, array([0])), (26303, array([1])), (26445, array([0])), (26458, array([1])), (26480, array([0])), (26536, array([1])), (26569, array([1])), (26583, array([1])), (26622, array([1])), (26623, array([0])), (26676, array([1])), (26679, array([1])), (26714, array([0])), (26840, array([1])), (26861, array([1])), (26949, array([1])), (27025, array([1])), (27052, array([1])), (27066, array([1])), (27118, array([1])), (27127, array([0])), (27157, array([1])), (27188, array([1])), (27192, array([0])), (27220, array([1])), (27271, array([1])), (27289, array([1])), (27298, array([0])), (27483, array([1])), (27488, array([1])), (27514, array([1])), (27637, array([1])), (27741, array([0])), (27749, array([0])), (27790, array([1])), (27815, array([1])), (27895, array([1])), (27908, array([1])), (28001, array([1])), (28240, array([1])), (28256, array([1])), (28410, array([1])), (28491, array([0])), (28596, array([1])), (28650, array([1])), (28719, array([1])), (28728, array([0])), (28773, array([1])), (28822, array([1])), (29057, array([1])), (29133, array([0])), (29253, array([1])), (29268, array([1])), (29274, array([1])), (29302, array([1])), (29329, array([1])), (29473, array([1])), (29500, array([1])), (29597, array([1])), (29602, array([0])), (29695, array([1])), (29746, array([1])), (29859, array([1])), (29904, array([0])), (29939, array([1])), (29997, array([1])), (30149, array([1])), (30417, array([1])), (30478, array([1])), (30529, array([1])), (30743, array([0])), (30758, array([0])), (30792, array([1])), (30823, array([1])), (30874, array([1])), (30886, array([1])), (30901, array([1])), (31073, array([1])), (31102, array([1])), (31249, array([0])), (31334, array([1])), (31352, array([1])), (31466, array([1])), (31472, array([1])), (31520, array([1])), (31620, array([1])), (31643, array([1])), (31723, array([1])), (31940, array([1]))]</t>
+  </si>
+  <si>
+    <t>[(24, array([1])), (230, array([1])), (232, array([0])), (265, array([0])), (281, array([0])), (529, array([1])), (570, array([1])), (675, array([1])), (682, array([1])), (828, array([1])), (996, array([1])), (1002, array([1])), (1107, array([0])), (1113, array([0])), (1139, array([1])), (1156, array([1])), (1158, array([1])), (1195, array([1])), (1204, array([0])), (1268, array([1])), (1325, array([1])), (1338, array([0])), (1373, array([1])), (1532, array([0])), (1569, array([1])), (1593, array([0])), (1632, array([1])), (1785, array([1])), (1818, array([0])), (1895, array([1])), (1929, array([0])), (1976, array([1])), (2055, array([0])), (2070, array([1])), (2116, array([1])), (2214, array([1])), (2275, array([1])), (2363, array([0])), (2549, array([0])), (2561, array([1])), (2657, array([1])), (2658, array([0])), (2733, array([1])), (2750, array([1])), (2861, array([1])), (2932, array([1])), (3049, array([1])), (3069, array([1])), (3100, array([1])), (3161, array([1])), (3165, array([1])), (3208, array([1])), (3251, array([0])), (3364, array([1])), (3391, array([0])), (3412, array([1])), (3461, array([1])), (3551, array([1])), (3571, array([1])), (3580, array([1])), (3590, array([1])), (3593, array([1])), (3597, array([1])), (3638, array([1])), (3641, array([0])), (3678, array([1])), (3746, array([1])), (3782, array([1])), (3785, array([1])), (3788, array([1])), (3789, array([1])), (3816, array([1])), (3864, array([1])), (3874, array([0])), (3876, array([1])), (3997, array([1])), (4018, array([1])), (4114, array([1])), (4224, array([1])), (4258, array([1])), (4274, array([0])), (4356, array([1])), (4690, array([1])), (4782, array([1])), (4842, array([1])), (4931, array([0])), (4992, array([1])), (5005, array([1])), (5174, array([1])), (5222, array([1])), (5253, array([1])), (5292, array([1])), (5316, array([1])), (5420, array([1])), (5488, array([1])), (5523, array([1])), (5537, array([0])), (5555, array([1])), (5565, array([1])), (5695, array([1])), (5706, array([1])), (5743, array([1])), (5786, array([0])), (5876, array([1])), (5886, array([0])), (5956, array([1])), (5991, array([1])), (6056, array([1])), (6165, array([1])), (6282, array([0])), (6340, array([1])), (6376, array([1])), (6405, array([1])), (6409, array([1])), (6472, array([0])), (6493, array([0])), (6571, array([0])), (6582, array([1])), (6658, array([0])), (6751, array([0])), (6759, array([0])), (6786, array([1])), (6888, array([1])), (6903, array([0])), (7005, array([1])), (7050, array([1])), (7178, array([0])), (7181, array([1])), (7215, array([1])), (7321, array([1])), (7331, array([1])), (7388, array([1])), (7415, array([0])), (7596, array([0])), (7649, array([0])), (7673, array([0])), (7791, array([0])), (7839, array([0])), (7896, array([0])), (8015, array([1])), (8107, array([1])), (8166, array([1])), (8177, array([1])), (8227, array([1])), (8456, array([1])), (8644, array([1])), (8659, array([0])), (8694, array([1])), (8888, array([1])), (8928, array([1])), (8976, array([1])), (9022, array([1])), (9043, array([1])), (9160, array([1])), (9244, array([0])), (9287, array([1])), (9383, array([0])), (9739, array([0])), (9742, array([0])), (9818, array([0])), (9873, array([0])), (9886, array([1])), (9912, array([1])), (9917, array([0])), (9934, array([1])), (9986, array([1])), (10066, array([1])), (10097, array([1])), (10129, array([0])), (10169, array([0])), (10258, array([0])), (10326, array([0])), (10347, array([1])), (10404, array([1])), (10456, array([1])), (10461, array([1])), (10507, array([1])), (10530, array([1])), (10662, array([0])), (10677, array([1])), (10715, array([1])), (10732, array([1])), (10769, array([1])), (10817, array([1])), (10888, array([0])), (10931, array([0])), (10993, array([1])), (11128, array([1])), (11200, array([1])), (11232, array([1])), (11245, array([1])), (11259, array([1])), (11290, array([1])), (11324, array([0])), (11601, array([1])), (11614, array([1])), (11693, array([1])), (11739, array([1])), (11821, array([0])), (12020, array([1])), (12070, array([1])), (12120, array([1])), (12197, array([1])), (12255, array([1])), (12293, array([1])), (12323, array([0])), (12353, array([1])), (12467, array([1])), (12624, array([0])), (12762, array([0])), (12785, array([0])), (12795, array([1])), (12874, array([1])), (12956, array([1])), (12959, array([1])), (12994, array([1])), (13026, array([1])), (13039, array([0])), (13122, array([0])), (13140, array([1])), (13275, array([1])), (13278, array([1])), (13330, array([1])), (13351, array([0])), (13352, array([1])), (13413, array([1])), (13448, array([1])), (13476, array([1])), (13660, array([1])), (13690, array([1])), (13698, array([1])), (13769, array([1])), (13780, array([1])), (13797, array([1])), (13804, array([0])), (13908, array([1])), (13910, array([1])), (13940, array([1])), (13945, array([1])), (14015, array([1])), (14143, array([1])), (14223, array([0])), (14303, array([1])), (14307, array([1])), (14314, array([0])), (14384, array([0])), (14413, array([0])), (14527, array([1])), (14683, array([1])), (14684, array([1])), (14918, array([1])), (14923, array([0])), (14999, array([1])), (15030, array([1])), (15082, array([0])), (15155, array([0])), (15160, array([1])), (15193, array([1])), (15202, array([1])), (15240, array([0])), (15252, array([1])), (15268, array([0])), (15274, array([1])), (15279, array([1])), (15329, array([1])), (15352, array([1])), (15410, array([1])), (15536, array([0])), (15628, array([0])), (15684, array([1])), (15757, array([0])), (15834, array([1])), (15872, array([0])), (15954, array([1])), (16048, array([0])), (16074, array([1])), (16192, array([1])), (16208, array([1])), (16243, array([1])), (16244, array([1])), (16257, array([1])), (16316, array([1])), (16399, array([1])), (16403, array([1])), (16407, array([0])), (16515, array([0])), (16543, array([1])), (16557, array([1])), (16585, array([1])), (16623, array([1])), (16666, array([1])), (16667, array([1])), (16769, array([1])), (16810, array([0])), (16883, array([1])), (17064, array([1])), (17073, array([1])), (17120, array([0])), (17123, array([0])), (17134, array([1])), (17167, array([0])), (17221, array([1])), (17314, array([1])), (17331, array([1])), (17352, array([0])), (17389, array([0])), (17412, array([1])), (17433, array([0])), (17438, array([1])), (17475, array([1])), (17606, array([1])), (17629, array([1])), (17779, array([1])), (18091, array([1])), (18096, array([1])), (18121, array([1])), (18134, array([0])), (18143, array([0])), (18154, array([1])), (18184, array([0])), (18204, array([1])), (18230, array([1])), (18299, array([1])), (18312, array([1])), (18532, array([0])), (18535, array([1])), (18647, array([1])), (18722, array([0])), (18765, array([0])), (18788, array([0])), (18805, array([1])), (18928, array([0])), (19005, array([0])), (19031, array([0])), (19068, array([1])), (19102, array([1])), (19190, array([1])), (19275, array([0])), (19318, array([1])), (19386, array([1])), (19493, array([1])), (19560, array([1])), (19576, array([1])), (19625, array([0])), (19627, array([0])), (19637, array([1])), (19724, array([1])), (19818, array([0])), (19942, array([1])), (19977, array([1])), (20023, array([1])), (20051, array([1])), (20202, array([1])), (20283, array([1])), (20294, array([1])), (20324, array([0])), (20377, array([0])), (20454, array([1])), (20610, array([1])), (20706, array([1])), (20725, array([1])), (20806, array([0])), (20851, array([1])), (20852, array([1])), (21084, array([1])), (21154, array([1])), (21157, array([1])), (21169, array([0])), (21209, array([1])), (21230, array([0])), (21232, array([1])), (21253, array([1])), (21286, array([1])), (21301, array([1])), (21317, array([0])), (21325, array([1])), (21362, array([0])), (21411, array([1])), (21492, array([1])), (21500, array([1])), (21524, array([1])), (21621, array([1])), (21833, array([0])), (21893, array([1])), (21921, array([1])), (22006, array([1])), (22008, array([1])), (22128, array([0])), (22152, array([0])), (22164, array([1])), (22195, array([1])), (22215, array([1])), (22220, array([0])), (22227, array([1])), (22279, array([1])), (22280, array([1])), (22551, array([0])), (22561, array([1])), (22743, array([1])), (22821, array([1])), (22827, array([1])), (22835, array([0])), (22841, array([1])), (22843, array([1])), (22854, array([1])), (22961, array([1])), (22980, array([1])), (23174, array([0])), (23216, array([1])), (23311, array([1])), (23395, array([1])), (23408, array([1])), (23506, array([1])), (23512, array([0])), (23627, array([0])), (23634, array([1])), (23635, array([1])), (23648, array([1])), (23725, array([1])), (23843, array([0])), (23950, array([0])), (24022, array([1])), (24144, array([1])), (24178, array([1])), (24204, array([1])), (24296, array([1])), (24408, array([1])), (24540, array([0])), (24552, array([1])), (24579, array([1])), (24606, array([1])), (24649, array([1])), (24659, array([1])), (24699, array([1])), (24707, array([1])), (24857, array([0])), (24916, array([1])), (25133, array([0])), (25148, array([1])), (25374, array([1])), (25398, array([1])), (25492, array([1])), (25578, array([1])), (25773, array([1])), (25837, array([0])), (25858, array([1])), (25862, array([1])), (25900, array([1])), (25906, array([0])), (25965, array([1])), (26003, array([1])), (26046, array([1])), (26058, array([1])), (26085, array([1])), (26089, array([1])), (26125, array([1])), (26286, array([0])), (26303, array([1])), (26311, array([1])), (26445, array([0])), (26458, array([1])), (26480, array([0])), (26517, array([1])), (26536, array([1])), (26569, array([1])), (26583, array([1])), (26622, array([1])), (26623, array([0])), (26676, array([1])), (26679, array([1])), (26714, array([0])), (26840, array([1])), (26861, array([1])), (26880, array([1])), (26937, array([1])), (26949, array([1])), (27025, array([1])), (27052, array([1])), (27066, array([1])), (27118, array([1])), (27127, array([0])), (27157, array([1])), (27188, array([1])), (27192, array([0])), (27220, array([1])), (27230, array([0])), (27253, array([1])), (27271, array([1])), (27289, array([1])), (27298, array([0])), (27301, array([0])), (27425, array([1])), (27448, array([0])), (27483, array([1])), (27488, array([1])), (27514, array([1])), (27637, array([1])), (27741, array([0])), (27749, array([0])), (27774, array([1])), (27790, array([1])), (27815, array([1])), (27895, array([1])), (27908, array([1])), (28001, array([1])), (28009, array([1])), (28065, array([1])), (28096, array([0])), (28177, array([0])), (28240, array([1])), (28256, array([1])), (28355, array([1])), (28357, array([1])), (28410, array([1])), (28469, array([1])), (28491, array([0])), (28516, array([1])), (28596, array([1])), (28650, array([1])), (28719, array([1])), (28728, array([0])), (28742, array([1])), (28773, array([1])), (28822, array([1])), (28934, array([1])), (28986, array([0])), (29057, array([1])), (29104, array([1])), (29133, array([0])), (29253, array([1])), (29268, array([1])), (29274, array([1])), (29302, array([1])), (29329, array([1])), (29340, array([1])), (29473, array([1])), (29494, array([1])), (29500, array([1])), (29597, array([1])), (29602, array([0])), (29695, array([1])), (29746, array([1])), (29859, array([1])), (29904, array([0])), (29939, array([1])), (29994, array([1])), (29997, array([1])), (30149, array([1])), (30370, array([1])), (30405, array([1])), (30417, array([1])), (30478, array([1])), (30529, array([1])), (30536, array([1])), (30619, array([1])), (30670, array([1])), (30681, array([1])), (30714, array([1])), (30743, array([0])), (30758, array([0])), (30792, array([1])), (30823, array([1])), (30874, array([1])), (30886, array([1])), (30901, array([1])), (31073, array([1])), (31102, array([1])), (31150, array([1])), (31249, array([0])), (31334, array([1])), (31352, array([1])), (31466, array([1])), (31472, array([1])), (31520, array([1])), (31533, array([1])), (31620, array([1])), (31626, array([1])), (31643, array([1])), (31714, array([1])), (31723, array([1])), (31940, array([1]))]</t>
+  </si>
+  <si>
+    <t>[(24, array([1])), (64, array([1])), (82, array([1])), (109, array([0])), (190, array([0])), (194, array([1])), (230, array([1])), (232, array([0])), (246, array([1])), (265, array([0])), (281, array([0])), (415, array([1])), (529, array([1])), (570, array([1])), (675, array([1])), (682, array([1])), (828, array([1])), (996, array([1])), (1002, array([1])), (1107, array([0])), (1113, array([0])), (1139, array([1])), (1147, array([1])), (1156, array([1])), (1158, array([1])), (1195, array([1])), (1204, array([0])), (1268, array([1])), (1325, array([1])), (1331, array([1])), (1338, array([0])), (1373, array([1])), (1431, array([0])), (1532, array([0])), (1569, array([1])), (1593, array([0])), (1632, array([1])), (1769, array([1])), (1785, array([1])), (1818, array([0])), (1895, array([1])), (1929, array([0])), (1937, array([1])), (1976, array([1])), (2044, array([1])), (2055, array([0])), (2070, array([1])), (2116, array([1])), (2214, array([1])), (2275, array([1])), (2363, array([0])), (2549, array([0])), (2561, array([1])), (2642, array([0])), (2657, array([1])), (2658, array([0])), (2690, array([1])), (2733, array([1])), (2750, array([1])), (2755, array([1])), (2861, array([1])), (2924, array([1])), (2932, array([1])), (3049, array([1])), (3056, array([1])), (3069, array([1])), (3086, array([1])), (3100, array([1])), (3110, array([1])), (3161, array([1])), (3165, array([1])), (3208, array([1])), (3251, array([0])), (3304, array([1])), (3341, array([0])), (3364, array([1])), (3391, array([0])), (3412, array([1])), (3461, array([1])), (3551, array([1])), (3571, array([1])), (3580, array([1])), (3590, array([1])), (3593, array([1])), (3597, array([1])), (3638, array([1])), (3641, array([0])), (3678, array([1])), (3746, array([1])), (3782, array([1])), (3785, array([1])), (3788, array([1])), (3789, array([1])), (3816, array([1])), (3864, array([1])), (3874, array([0])), (3876, array([1])), (3997, array([1])), (4018, array([1])), (4114, array([1])), (4224, array([1])), (4258, array([1])), (4274, array([0])), (4356, array([1])), (4469, array([1])), (4578, array([1])), (4690, array([1])), (4772, array([0])), (4774, array([1])), (4782, array([1])), (4842, array([1])), (4931, array([0])), (4992, array([1])), (5005, array([1])), (5038, array([1])), (5174, array([1])), (5222, array([1])), (5230, array([1])), (5253, array([1])), (5285, array([1])), (5292, array([1])), (5316, array([1])), (5337, array([1])), (5377, array([1])), (5420, array([1])), (5488, array([1])), (5523, array([1])), (5537, array([0])), (5555, array([1])), (5565, array([1])), (5695, array([1])), (5706, array([1])), (5733, array([1])), (5743, array([1])), (5786, array([0])), (5876, array([1])), (5886, array([0])), (5956, array([1])), (5991, array([1])), (6056, array([1])), (6102, array([0])), (6165, array([1])), (6282, array([0])), (6340, array([1])), (6376, array([1])), (6405, array([1])), (6409, array([1])), (6469, array([1])), (6472, array([0])), (6493, array([0])), (6496, array([0])), (6540, array([1])), (6571, array([0])), (6582, array([1])), (6658, array([0])), (6751, array([0])), (6759, array([0])), (6786, array([1])), (6858, array([1])), (6888, array([1])), (6891, array([1])), (6903, array([0])), (6966, array([1])), (7005, array([1])), (7050, array([1])), (7096, array([1])), (7178, array([0])), (7181, array([1])), (7215, array([1])), (7321, array([1])), (7331, array([1])), (7388, array([1])), (7415, array([0])), (7512, array([1])), (7596, array([0])), (7649, array([0])), (7673, array([0])), (7711, array([1])), (7791, array([0])), (7826, array([1])), (7839, array([0])), (7861, array([0])), (7896, array([0])), (8015, array([1])), (8107, array([1])), (8140, array([1])), (8166, array([1])), (8177, array([1])), (8203, array([1])), (8227, array([1])), (8419, array([0])), (8456, array([1])), (8644, array([1])), (8659, array([0])), (8694, array([1])), (8888, array([1])), (8928, array([1])), (8976, array([1])), (9022, array([1])), (9043, array([1])), (9160, array([1])), (9174, array([1])), (9199, array([1])), (9244, array([0])), (9287, array([1])), (9383, array([0])), (9739, array([0])), (9742, array([0])), (9818, array([0])), (9873, array([0])), (9886, array([1])), (9912, array([1])), (9913, array([1])), (9917, array([0])), (9934, array([1])), (9986, array([1])), (10036, array([1])), (10066, array([1])), (10097, array([1])), (10129, array([0])), (10143, array([1])), (10160, array([1])), (10169, array([0])), (10242, array([1])), (10258, array([0])), (10326, array([0])), (10347, array([1])), (10404, array([1])), (10456, array([1])), (10461, array([1])), (10507, array([1])), (10530, array([1])), (10662, array([0])), (10677, array([1])), (10715, array([1])), (10732, array([1])), (10769, array([1])), (10817, array([1])), (10888, array([0])), (10931, array([0])), (10976, array([1])), (10993, array([1])), (11095, array([1])), (11128, array([1])), (11200, array([1])), (11232, array([1])), (11245, array([1])), (11259, array([1])), (11285, array([1])), (11290, array([1])), (11324, array([0])), (11329, array([1])), (11504, array([1])), (11510, array([1])), (11540, array([1])), (11601, array([1])), (11614, array([1])), (11668, array([1])), (11693, array([1])), (11739, array([1])), (11821, array([0])), (11844, array([1])), (12020, array([1])), (12070, array([1])), (12120, array([1])), (12197, array([1])), (12250, array([1])), (12255, array([1])), (12293, array([1])), (12323, array([0])), (12339, array([1])), (12344, array([0])), (12353, array([1])), (12383, array([1])), (12436, array([1])), (12467, array([1])), (12539, array([1])), (12624, array([0])), (12657, array([1])), (12762, array([0])), (12785, array([0])), (12786, array([1])), (12795, array([1])), (12874, array([1])), (12956, array([1])), (12959, array([1])), (12994, array([1])), (13009, array([1])), (13026, array([1])), (13039, array([0])), (13076, array([1])), (13122, array([0])), (13140, array([1])), (13272, array([0])), (13275, array([1])), (13278, array([1])), (13317, array([1])), (13330, array([1])), (13351, array([0])), (13352, array([1])), (13413, array([1])), (13448, array([1])), (13476, array([1])), (13527, array([1])), (13528, array([1])), (13660, array([1])), (13690, array([1])), (13698, array([1])), (13758, array([1])), (13769, array([1])), (13780, array([1])), (13797, array([1])), (13804, array([0])), (13835, array([1])), (13908, array([1])), (13910, array([1])), (13934, array([1])), (13940, array([1])), (13945, array([1])), (14015, array([1])), (14034, array([1])), (14143, array([1])), (14184, array([0])), (14223, array([0])), (14303, array([1])), (14307, array([1])), (14314, array([0])), (14336, array([0])), (14384, array([0])), (14413, array([0])), (14527, array([1])), (14683, array([1])), (14684, array([1])), (14887, array([0])), (14918, array([1])), (14923, array([0])), (14999, array([1])), (15016, array([1])), (15030, array([1])), (15082, array([0])), (15094, array([1])), (15155, array([0])), (15160, array([1])), (15193, array([1])), (15202, array([1])), (15240, array([0])), (15252, array([1])), (15268, array([0])), (15274, array([1])), (15279, array([1])), (15329, array([1])), (15352, array([1])), (15410, array([1])), (15512, array([1])), (15536, array([0])), (15628, array([0])), (15684, array([1])), (15757, array([0])), (15777, array([1])), (15834, array([1])), (15872, array([0])), (15954, array([1])), (16033, array([1])), (16048, array([0])), (16074, array([1])), (16192, array([1])), (16208, array([1])), (16243, array([1])), (16244, array([1])), (16257, array([1])), (16316, array([1])), (16367, array([1])), (16399, array([1])), (16403, array([1])), (16407, array([0])), (16515, array([0])), (16516, array([1])), (16543, array([1])), (16557, array([1])), (16566, array([1])), (16585, array([1])), (16623, array([1])), (16666, array([1])), (16667, array([1])), (16769, array([1])), (16810, array([0])), (16883, array([1])), (16976, array([1])), (17064, array([1])), (17073, array([1])), (17120, array([0])), (17123, array([0])), (17134, array([1])), (17167, array([0])), (17176, array([1])), (17187, array([1])), (17221, array([1])), (17307, array([1])), (17314, array([1])), (17331, array([1])), (17352, array([0])), (17389, array([0])), (17412, array([1])), (17433, array([0])), (17438, array([1])), (17451, array([0])), (17475, array([1])), (17529, array([1])), (17606, array([1])), (17629, array([1])), (17677, array([1])), (17712, array([1])), (17748, array([0])), (17779, array([1])), (17966, array([0])), (18091, array([1])), (18096, array([1])), (18121, array([1])), (18134, array([0])), (18143, array([0])), (18154, array([1])), (18184, array([0])), (18204, array([1])), (18230, array([1])), (18299, array([1])), (18312, array([1])), (18394, array([1])), (18532, array([0])), (18535, array([1])), (18647, array([1])), (18722, array([0])), (18765, array([0])), (18788, array([0])), (18805, array([1])), (18928, array([0])), (18976, array([1])), (18999, array([1])), (19005, array([0])), (19031, array([0])), (19041, array([1])), (19068, array([1])), (19102, array([1])), (19118, array([1])), (19190, array([1])), (19275, array([0])), (19318, array([1])), (19386, array([1])), (19411, array([0])), (19493, array([1])), (19560, array([1])), (19576, array([1])), (19624, array([1])), (19625, array([0])), (19627, array([0])), (19637, array([1])), (19724, array([1])), (19729, array([1])), (19808, array([1])), (19818, array([0])), (19942, array([1])), (19972, array([1])), (19977, array([1])), (20023, array([1])), (20051, array([1])), (20202, array([1])), (20277, array([1])), (20283, array([1])), (20294, array([1])), (20324, array([0])), (20377, array([0])), (20401, array([1])), (20454, array([1])), (20562, array([1])), (20610, array([1])), (20627, array([1])), (20706, array([1])), (20724, array([1])), (20725, array([1])), (20806, array([0])), (20851, array([1])), (20852, array([1])), (20902, array([1])), (20904, array([1])), (20984, array([1])), (20999, array([0])), (21084, array([1])), (21154, array([1])), (21157, array([1])), (21169, array([0])), (21209, array([1])), (21210, array([1])), (21230, array([0])), (21232, array([1])), (21253, array([1])), (21286, array([1])), (21301, array([1])), (21306, array([0])), (21317, array([0])), (21325, array([1])), (21362, array([0])), (21411, array([1])), (21454, array([1])), (21483, array([1])), (21492, array([1])), (21500, array([1])), (21524, array([1])), (21526, array([0])), (21608, array([1])), (21621, array([1])), (21730, array([1])), (21742, array([1])), (21833, array([0])), (21893, array([1])), (21921, array([1])), (22006, array([1])), (22008, array([1])), (22080, array([1])), (22128, array([0])), (22152, array([0])), (22164, array([1])), (22195, array([1])), (22215, array([1])), (22220, array([0])), (22227, array([1])), (22279, array([1])), (22280, array([1])), (22413, array([1])), (22515, array([1])), (22551, array([0])), (22561, array([1])), (22743, array([1])), (22821, array([1])), (22827, array([1])), (22835, array([0])), (22841, array([1])), (22843, array([1])), (22854, array([1])), (22961, array([1])), (22980, array([1])), (23174, array([0])), (23216, array([1])), (23311, array([1])), (23355, array([1])), (23395, array([1])), (23408, array([1])), (23433, array([1])), (23506, array([1])), (23512, array([0])), (23627, array([0])), (23634, array([1])), (23635, array([1])), (23648, array([1])), (23725, array([1])), (23843, array([0])), (23935, array([0])), (23950, array([0])), (24022, array([1])), (24144, array([1])), (24178, array([1])), (24204, array([1])), (24259, array([1])), (24296, array([1])), (24302, array([1])), (24408, array([1])), (24540, array([0])), (24552, array([1])), (24579, array([1])), (24606, array([1])), (24649, array([1])), (24659, array([1])), (24699, array([1])), (24707, array([1])), (24759, array([1])), (24825, array([1])), (24857, array([0])), (24888, array([1])), (24916, array([1])), (24961, array([1])), (25000, array([1])), (25133, array([0])), (25148, array([1])), (25212, array([1])), (25313, array([1])), (25374, array([1])), (25398, array([1])), (25492, array([1])), (25578, array([1])), (25707, array([1])), (25745, array([0])), (25773, array([1])), (25837, array([0])), (25858, array([1])), (25862, array([1])), (25883, array([1])), (25900, array([1])), (25906, array([0])), (25965, array([1])), (26003, array([1])), (26046, array([1])), (26058, array([1])), (26085, array([1])), (26089, array([1])), (26125, array([1])), (26286, array([0])), (26303, array([1])), (26311, array([1])), (26371, array([1])), (26445, array([0])), (26458, array([1])), (26480, array([0])), (26517, array([1])), (26536, array([1])), (26545, array([1])), (26562, array([1])), (26569, array([1])), (26583, array([1])), (26607, array([1])), (26622, array([1])), (26623, array([0])), (26658, array([1])), (26676, array([1])), (26679, array([1])), (26714, array([0])), (26758, array([1])), (26761, array([1])), (26840, array([1])), (26861, array([1])), (26880, array([1])), (26937, array([1])), (26949, array([1])), (27025, array([1])), (27052, array([1])), (27066, array([1])), (27118, array([1])), (27127, array([0])), (27157, array([1])), (27188, array([1])), (27192, array([0])), (27220, array([1])), (27230, array([0])), (27253, array([1])), (27271, array([1])), (27289, array([1])), (27298, array([0])), (27301, array([0])), (27425, array([1])), (27448, array([0])), (27483, array([1])), (27488, array([1])), (27514, array([1])), (27570, array([1])), (27637, array([1])), (27693, array([1])), (27741, array([0])), (27749, array([0])), (27774, array([1])), (27790, array([1])), (27815, array([1])), (27856, array([1])), (27895, array([1])), (27908, array([1])), (28001, array([1])), (28009, array([1])), (28065, array([1])), (28096, array([0])), (28151, array([1])), (28177, array([0])), (28240, array([1])), (28256, array([1])), (28355, array([1])), (28357, array([1])), (28410, array([1])), (28469, array([1])), (28491, array([0])), (28516, array([1])), (28596, array([1])), (28628, array([0])), (28650, array([1])), (28661, array([1])), (28719, array([1])), (28728, array([0])), (28742, array([1])), (28773, array([1])), (28822, array([1])), (28824, array([1])), (28881, array([1])), (28934, array([1])), (28986, array([0])), (29057, array([1])), (29104, array([1])), (29133, array([0])), (29253, array([1])), (29258, array([1])), (29268, array([1])), (29274, array([1])), (29302, array([1])), (29329, array([1])), (29340, array([1])), (29391, array([1])), (29430, array([0])), (29440, array([1])), (29473, array([1])), (29494, array([1])), (29500, array([1])), (29534, array([1])), (29597, array([1])), (29602, array([0])), (29695, array([1])), (29746, array([1])), (29859, array([1])), (29904, array([0])), (29939, array([1])), (29948, array([0])), (29994, array([1])), (29997, array([1])), (30069, array([1])), (30149, array([1])), (30192, array([1])), (30254, array([1])), (30317, array([1])), (30321, array([0])), (30370, array([1])), (30405, array([1])), (30417, array([1])), (30478, array([1])), (30489, array([0])), (30516, array([1])), (30527, array([1])), (30529, array([1])), (30536, array([1])), (30619, array([1])), (30664, array([1])), (30670, array([1])), (30681, array([1])), (30714, array([1])), (30743, array([0])), (30758, array([0])), (30792, array([1])), (30823, array([1])), (30847, array([1])), (30857, array([0])), (30874, array([1])), (30886, array([1])), (30901, array([1])), (30998, array([1])), (31045, array([0])), (31073, array([1])), (31102, array([1])), (31118, array([1])), (31150, array([1])), (31197, array([1])), (31215, array([1])), (31229, array([1])), (31249, array([0])), (31334, array([1])), (31352, array([1])), (31466, array([1])), (31472, array([1])), (31520, array([1])), (31533, array([1])), (31620, array([1])), (31626, array([1])), (31643, array([1])), (31714, array([1])), (31723, array([1])), (31752, array([1])), (31850, array([1])), (31940, array([1]))]</t>
+  </si>
+  <si>
+    <t>[(8, array([1])), (24, array([1])), (64, array([1])), (82, array([1])), (109, array([0])), (143, array([1])), (190, array([0])), (194, array([1])), (205, array([1])), (217, array([0])), (230, array([1])), (232, array([0])), (246, array([1])), (265, array([0])), (281, array([0])), (415, array([1])), (444, array([1])), (524, array([1])), (529, array([1])), (570, array([1])), (675, array([1])), (682, array([1])), (828, array([1])), (932, array([1])), (996, array([1])), (1002, array([1])), (1107, array([0])), (1113, array([0])), (1139, array([1])), (1143, array([1])), (1147, array([1])), (1156, array([1])), (1158, array([1])), (1195, array([1])), (1204, array([0])), (1235, array([1])), (1268, array([1])), (1325, array([1])), (1331, array([1])), (1338, array([0])), (1346, array([1])), (1373, array([1])), (1431, array([0])), (1498, array([1])), (1532, array([0])), (1569, array([1])), (1593, array([0])), (1627, array([0])), (1632, array([1])), (1761, array([1])), (1769, array([1])), (1785, array([1])), (1818, array([0])), (1895, array([1])), (1919, array([1])), (1929, array([0])), (1937, array([1])), (1976, array([1])), (2044, array([1])), (2055, array([0])), (2070, array([1])), (2116, array([1])), (2214, array([1])), (2275, array([1])), (2363, array([0])), (2378, array([1])), (2380, array([1])), (2482, array([1])), (2493, array([1])), (2549, array([0])), (2561, array([1])), (2570, array([1])), (2578, array([1])), (2642, array([0])), (2657, array([1])), (2658, array([0])), (2690, array([1])), (2733, array([1])), (2750, array([1])), (2755, array([1])), (2861, array([1])), (2903, array([1])), (2924, array([1])), (2932, array([1])), (3011, array([1])), (3046, array([1])), (3049, array([1])), (3056, array([1])), (3069, array([1])), (3086, array([1])), (3100, array([1])), (3110, array([1])), (3161, array([1])), (3165, array([1])), (3208, array([1])), (3251, array([0])), (3304, array([1])), (3341, array([0])), (3364, array([1])), (3391, array([0])), (3395, array([1])), (3412, array([1])), (3461, array([1])), (3551, array([1])), (3571, array([1])), (3580, array([1])), (3590, array([1])), (3593, array([1])), (3597, array([1])), (3638, array([1])), (3641, array([0])), (3678, array([1])), (3746, array([1])), (3782, array([1])), (3785, array([1])), (3788, array([1])), (3789, array([1])), (3816, array([1])), (3864, array([1])), (3874, array([0])), (3876, array([1])), (3997, array([1])), (4014, array([1])), (4018, array([1])), (4021, array([0])), (4114, array([1])), (4224, array([1])), (4258, array([1])), (4274, array([0])), (4356, array([1])), (4384, array([1])), (4469, array([1])), (4551, array([1])), (4578, array([1])), (4690, array([1])), (4772, array([0])), (4774, array([1])), (4782, array([1])), (4842, array([1])), (4931, array([0])), (4945, array([1])), (4992, array([1])), (5005, array([1])), (5038, array([1])), (5088, array([1])), (5129, array([1])), (5168, array([1])), (5174, array([1])), (5222, array([1])), (5230, array([1])), (5253, array([1])), (5285, array([1])), (5292, array([1])), (5299, array([1])), (5316, array([1])), (5337, array([1])), (5377, array([1])), (5420, array([1])), (5488, array([1])), (5523, array([1])), (5537, array([0])), (5555, array([1])), (5565, array([1])), (5669, array([1])), (5695, array([1])), (5706, array([1])), (5733, array([1])), (5743, array([1])), (5786, array([0])), (5839, array([1])), (5876, array([1])), (5886, array([0])), (5926, array([1])), (5956, array([1])), (5991, array([1])), (6036, array([1])), (6056, array([1])), (6102, array([0])), (6150, array([1])), (6165, array([1])), (6185, array([1])), (6282, array([0])), (6328, array([1])), (6339, array([1])), (6340, array([1])), (6376, array([1])), (6381, array([1])), (6405, array([1])), (6409, array([1])), (6469, array([1])), (6472, array([0])), (6493, array([0])), (6496, array([0])), (6540, array([1])), (6571, array([0])), (6582, array([1])), (6658, array([0])), (6719, array([1])), (6751, array([0])), (6759, array([0])), (6786, array([1])), (6858, array([1])), (6888, array([1])), (6891, array([1])), (6903, array([0])), (6966, array([1])), (7005, array([1])), (7050, array([1])), (7086, array([1])), (7096, array([1])), (7178, array([0])), (7181, array([1])), (7215, array([1])), (7321, array([1])), (7331, array([1])), (7388, array([1])), (7411, array([1])), (7415, array([0])), (7426, array([1])), (7512, array([1])), (7564, array([1])), (7575, array([1])), (7596, array([0])), (7649, array([0])), (7673, array([0])), (7711, array([1])), (7746, array([1])), (7791, array([0])), (7826, array([1])), (7839, array([0])), (7861, array([0])), (7896, array([0])), (7972, array([1])), (7989, array([0])), (8015, array([1])), (8107, array([1])), (8140, array([1])), (8166, array([1])), (8177, array([1])), (8178, array([1])), (8203, array([1])), (8227, array([1])), (8231, array([1])), (8386, array([1])), (8419, array([0])), (8456, array([1])), (8459, array([0])), (8487, array([1])), (8644, array([1])), (8659, array([0])), (8694, array([1])), (8745, array([1])), (8888, array([1])), (8928, array([1])), (8968, array([1])), (8976, array([1])), (8999, array([0])), (9020, array([1])), (9022, array([1])), (9043, array([1])), (9094, array([1])), (9160, array([1])), (9168, array([1])), (9174, array([1])), (9199, array([1])), (9244, array([0])), (9287, array([1])), (9348, array([1])), (9383, array([0])), (9694, array([1])), (9739, array([0])), (9742, array([0])), (9818, array([0])), (9873, array([0])), (9886, array([1])), (9912, array([1])), (9913, array([1])), (9917, array([0])), (9934, array([1])), (9956, array([1])), (9986, array([1])), (10036, array([1])), (10066, array([1])), (10097, array([1])), (10129, array([0])), (10143, array([1])), (10160, array([1])), (10169, array([0])), (10241, array([1])), (10242, array([1])), (10258, array([0])), (10326, array([0])), (10347, array([1])), (10404, array([1])), (10456, array([1])), (10461, array([1])), (10507, array([1])), (10530, array([1])), (10601, array([1])), (10662, array([0])), (10677, array([1])), (10715, array([1])), (10732, array([1])), (10769, array([1])), (10817, array([1])), (10888, array([0])), (10925, array([1])), (10931, array([0])), (10976, array([1])), (10993, array([1])), (11095, array([1])), (11128, array([1])), (11164, array([1])), (11173, array([1])), (11200, array([1])), (11232, array([1])), (11245, array([1])), (11259, array([1])), (11285, array([1])), (11290, array([1])), (11324, array([0])), (11329, array([1])), (11468, array([1])), (11504, array([1])), (11510, array([1])), (11540, array([1])), (11578, array([1])), (11601, array([1])), (11614, array([1])), (11668, array([1])), (11693, array([1])), (11714, array([1])), (11739, array([1])), (11821, array([0])), (11844, array([1])), (12020, array([1])), (12056, array([1])), (12070, array([1])), (12120, array([1])), (12197, array([1])), (12201, array([1])), (12234, array([1])), (12250, array([1])), (12255, array([1])), (12293, array([1])), (12323, array([0])), (12338, array([1])), (12339, array([1])), (12344, array([0])), (12353, array([1])), (12383, array([1])), (12436, array([1])), (12467, array([1])), (12539, array([1])), (12616, array([1])), (12624, array([0])), (12650, array([1])), (12657, array([1])), (12698, array([1])), (12758, array([1])), (12762, array([0])), (12783, array([1])), (12785, array([0])), (12786, array([1])), (12795, array([1])), (12849, array([1])), (12874, array([1])), (12956, array([1])), (12959, array([1])), (12994, array([1])), (13009, array([1])), (13026, array([1])), (13033, array([1])), (13039, array([0])), (13076, array([1])), (13122, array([0])), (13140, array([1])), (13272, array([0])), (13275, array([1])), (13278, array([1])), (13317, array([1])), (13330, array([1])), (13351, array([0])), (13352, array([1])), (13413, array([1])), (13448, array([1])), (13476, array([1])), (13480, array([1])), (13525, array([1])), (13527, array([1])), (13528, array([1])), (13660, array([1])), (13690, array([1])), (13698, array([1])), (13757, array([1])), (13758, array([1])), (13769, array([1])), (13780, array([1])), (13797, array([1])), (13804, array([0])), (13835, array([1])), (13908, array([1])), (13910, array([1])), (13934, array([1])), (13940, array([1])), (13945, array([1])), (14015, array([1])), (14034, array([1])), (14143, array([1])), (14172, array([1])), (14184, array([0])), (14223, array([0])), (14303, array([1])), (14307, array([1])), (14314, array([0])), (14336, array([0])), (14384, array([0])), (14413, array([0])), (14455, array([1])), (14497, array([1])), (14527, array([1])), (14683, array([1])), (14684, array([1])), (14887, array([0])), (14898, array([1])), (14918, array([1])), (14923, array([0])), (14934, array([1])), (14999, array([1])), (15016, array([1])), (15030, array([1])), (15082, array([0])), (15094, array([1])), (15155, array([0])), (15160, array([1])), (15181, array([1])), (15193, array([1])), (15202, array([1])), (15240, array([0])), (15252, array([1])), (15268, array([0])), (15274, array([1])), (15279, array([1])), (15329, array([1])), (15352, array([1])), (15410, array([1])), (15512, array([1])), (15536, array([0])), (15628, array([0])), (15684, array([1])), (15757, array([0])), (15777, array([1])), (15834, array([1])), (15872, array([0])), (15954, array([1])), (16033, array([1])), (16048, array([0])), (16074, array([1])), (16077, array([1])), (16192, array([1])), (16208, array([1])), (16243, array([1])), (16244, array([1])), (16257, array([1])), (16316, array([1])), (16367, array([1])), (16399, array([1])), (16403, array([1])), (16407, array([0])), (16515, array([0])), (16516, array([1])), (16543, array([1])), (16557, array([1])), (16566, array([1])), (16585, array([1])), (16591, array([1])), (16623, array([1])), (16666, array([1])), (16667, array([1])), (16769, array([1])), (16810, array([0])), (16883, array([1])), (16894, array([1])), (16976, array([1])), (17007, array([1])), (17064, array([1])), (17073, array([1])), (17120, array([0])), (17123, array([0])), (17134, array([1])), (17160, array([1])), (17167, array([0])), (17176, array([1])), (17187, array([1])), (17199, array([1])), (17221, array([1])), (17307, array([1])), (17314, array([1])), (17331, array([1])), (17352, array([0])), (17389, array([0])), (17412, array([1])), (17433, array([0])), (17438, array([1])), (17451, array([0])), (17468, array([1])), (17475, array([1])), (17529, array([1])), (17606, array([1])), (17629, array([1])), (17677, array([1])), (17704, array([1])), (17712, array([1])), (17748, array([0])), (17779, array([1])), (17782, array([1])), (17932, array([1])), (17966, array([0])), (18020, array([1])), (18091, array([1])), (18096, array([1])), (18105, array([1])), (18121, array([1])), (18134, array([0])), (18143, array([0])), (18154, array([1])), (18184, array([0])), (18204, array([1])), (18230, array([1])), (18299, array([1])), (18312, array([1])), (18394, array([1])), (18532, array([0])), (18535, array([1])), (18647, array([1])), (18722, array([0])), (18765, array([0])), (18788, array([0])), (18805, array([1])), (18928, array([0])), (18976, array([1])), (18999, array([1])), (19005, array([0])), (19031, array([0])), (19041, array([1])), (19068, array([1])), (19102, array([1])), (19118, array([1])), (19190, array([1])), (19275, array([0])), (19318, array([1])), (19370, array([1])), (19386, array([1])), (19411, array([0])), (19448, array([1])), (19493, array([1])), (19560, array([1])), (19570, array([1])), (19576, array([1])), (19624, array([1])), (19625, array([0])), (19627, array([0])), (19637, array([1])), (19657, array([1])), (19724, array([1])), (19729, array([1])), (19808, array([1])), (19818, array([0])), (19942, array([1])), (19972, array([1])), (19977, array([1])), (20023, array([1])), (20051, array([1])), (20082, array([0])), (20202, array([1])), (20277, array([1])), (20283, array([1])), (20294, array([1])), (20324, array([0])), (20377, array([0])), (20401, array([1])), (20416, array([1])), (20419, array([1])), (20454, array([1])), (20475, array([1])), (20562, array([1])), (20610, array([1])), (20627, array([1])), (20706, array([1])), (20724, array([1])), (20725, array([1])), (20806, array([0])), (20851, array([1])), (20852, array([1])), (20902, array([1])), (20904, array([1])), (20940, array([1])), (20984, array([1])), (20999, array([0])), (21012, array([1])), (21084, array([1])), (21154, array([1])), (21157, array([1])), (21159, array([1])), (21169, array([0])), (21198, array([1])), (21209, array([1])), (21210, array([1])), (21230, array([0])), (21232, array([1])), (21253, array([1])), (21286, array([1])), (21301, array([1])), (21306, array([0])), (21317, array([0])), (21325, array([1])), (21362, array([0])), (21411, array([1])), (21454, array([1])), (21483, array([1])), (21492, array([1])), (21500, array([1])), (21524, array([1])), (21526, array([0])), (21608, array([1])), (21615, array([1])), (21621, array([1])), (21730, array([1])), (21742, array([1])), (21833, array([0])), (21852, array([1])), (21893, array([1])), (21921, array([1])), (21953, array([1])), (22006, array([1])), (22008, array([1])), (22080, array([1])), (22128, array([0])), (22152, array([0])), (22164, array([1])), (22195, array([1])), (22215, array([1])), (22220, array([0])), (22227, array([1])), (22279, array([1])), (22280, array([1])), (22298, array([1])), (22327, array([1])), (22360, array([1])), (22413, array([1])), (22503, array([0])), (22515, array([1])), (22551, array([0])), (22561, array([1])), (22743, array([1])), (22821, array([1])), (22827, array([1])), (22835, array([0])), (22841, array([1])), (22843, array([1])), (22854, array([1])), (22884, array([1])), (22957, array([0])), (22961, array([1])), (22967, array([1])), (22980, array([1])), (23039, array([1])), (23174, array([0])), (23189, array([1])), (23216, array([1])), (23311, array([1])), (23355, array([1])), (23395, array([1])), (23408, array([1])), (23433, array([1])), (23469, array([1])), (23506, array([1])), (23512, array([0])), (23543, array([1])), (23627, array([0])), (23634, array([1])), (23635, array([1])), (23648, array([1])), (23725, array([1])), (23791, array([1])), (23843, array([0])), (23935, array([0])), (23950, array([0])), (24022, array([1])), (24097, array([1])), (24144, array([1])), (24178, array([1])), (24204, array([1])), (24225, array([1])), (24259, array([1])), (24296, array([1])), (24302, array([1])), (24408, array([1])), (24528, array([1])), (24540, array([0])), (24552, array([1])), (24579, array([1])), (24606, array([1])), (24629, array([1])), (24647, array([1])), (24649, array([1])), (24659, array([1])), (24699, array([1])), (24707, array([1])), (24759, array([1])), (24825, array([1])), (24851, array([1])), (24857, array([0])), (24888, array([1])), (24916, array([1])), (24961, array([1])), (25000, array([1])), (25133, array([0])), (25148, array([1])), (25212, array([1])), (25227, array([1])), (25313, array([1])), (25374, array([1])), (25398, array([1])), (25492, array([1])), (25567, array([0])), (25578, array([1])), (25707, array([1])), (25745, array([0])), (25773, array([1])), (25837, array([0])), (25858, array([1])), (25862, array([1])), (25883, array([1])), (25900, array([1])), (25906, array([0])), (25965, array([1])), (25972, array([1])), (25992, array([1])), (26003, array([1])), (26046, array([1])), (26058, array([1])), (26085, array([1])), (26089, array([1])), (26125, array([1])), (26286, array([0])), (26303, array([1])), (26311, array([1])), (26364, array([1])), (26371, array([1])), (26445, array([0])), (26458, array([1])), (26468, array([1])), (26480, array([0])), (26517, array([1])), (26536, array([1])), (26545, array([1])), (26562, array([1])), (26565, array([1])), (26569, array([1])), (26583, array([1])), (26607, array([1])), (26622, array([1])), (26623, array([0])), (26658, array([1])), (26676, array([1])), (26679, array([1])), (26697, array([1])), (26714, array([0])), (26758, array([1])), (26761, array([1])), (26840, array([1])), (26861, array([1])), (26880, array([1])), (26937, array([1])), (26949, array([1])), (27025, array([1])), (27052, array([1])), (27066, array([1])), (27118, array([1])), (27127, array([0])), (27142, array([0])), (27157, array([1])), (27188, array([1])), (27192, array([0])), (27220, array([1])), (27230, array([0])), (27253, array([1])), (27271, array([1])), (27289, array([1])), (27298, array([0])), (27301, array([0])), (27369, array([1])), (27425, array([1])), (27448, array([0])), (27483, array([1])), (27488, array([1])), (27514, array([1])), (27557, array([1])), (27570, array([1])), (27637, array([1])), (27693, array([1])), (27741, array([0])), (27749, array([0])), (27774, array([1])), (27790, array([1])), (27815, array([1])), (27856, array([1])), (27894, array([1])), (27895, array([1])), (27908, array([1])), (27942, array([1])), (27982, array([1])), (28001, array([1])), (28009, array([1])), (28042, array([0])), (28065, array([1])), (28096, array([0])), (28142, array([1])), (28151, array([1])), (28177, array([0])), (28240, array([1])), (28256, array([1])), (28307, array([1])), (28355, array([1])), (28357, array([1])), (28410, array([1])), (28469, array([1])), (28491, array([0])), (28516, array([1])), (28596, array([1])), (28597, array([1])), (28604, array([1])), (28628, array([0])), (28650, array([1])), (28661, array([1])), (28700, array([1])), (28719, array([1])), (28728, array([0])), (28742, array([1])), (28773, array([1])), (28822, array([1])), (28824, array([1])), (28881, array([1])), (28934, array([1])), (28986, array([0])), (29057, array([1])), (29104, array([1])), (29133, array([0])), (29253, array([1])), (29258, array([1])), (29268, array([1])), (29274, array([1])), (29302, array([1])), (29329, array([1])), (29340, array([1])), (29391, array([1])), (29430, array([0])), (29440, array([1])), (29473, array([1])), (29494, array([1])), (29500, array([1])), (29534, array([1])), (29597, array([1])), (29602, array([0])), (29695, array([1])), (29746, array([1])), (29752, array([1])), (29756, array([1])), (29778, array([1])), (29859, array([1])), (29904, array([0])), (29939, array([1])), (29948, array([0])), (29994, array([1])), (29997, array([1])), (30069, array([1])), (30149, array([1])), (30192, array([1])), (30254, array([1])), (30274, array([1])), (30317, array([1])), (30321, array([0])), (30370, array([1])), (30405, array([1])), (30417, array([1])), (30478, array([1])), (30489, array([0])), (30516, array([1])), (30527, array([1])), (30529, array([1])), (30536, array([1])), (30619, array([1])), (30664, array([1])), (30670, array([1])), (30681, array([1])), (30705, array([0])), (30714, array([1])), (30743, array([0])), (30758, array([0])), (30792, array([1])), (30823, array([1])), (30847, array([1])), (30857, array([0])), (30874, array([1])), (30886, array([1])), (30901, array([1])), (30998, array([1])), (31045, array([0])), (31073, array([1])), (31102, array([1])), (31109, array([1])), (31111, array([1])), (31118, array([1])), (31150, array([1])), (31197, array([1])), (31215, array([1])), (31229, array([1])), (31249, array([0])), (31334, array([1])), (31352, array([1])), (31466, array([1])), (31472, array([1])), (31520, array([1])), (31526, array([1])), (31533, array([1])), (31620, array([1])), (31626, array([1])), (31643, array([1])), (31714, array([1])), (31723, array([1])), (31752, array([1])), (31850, array([1])), (31898, array([1])), (31900, array([1])), (31926, array([1])), (31940, array([1])), (32006, array([1]))]</t>
+  </si>
+  <si>
+    <t>[(8, array([1])), (24, array([1])), (64, array([1])), (82, array([1])), (109, array([0])), (143, array([1])), (190, array([0])), (194, array([1])), (205, array([1])), (217, array([0])), (230, array([1])), (232, array([0])), (246, array([1])), (265, array([0])), (273, array([1])), (281, array([0])), (415, array([1])), (444, array([1])), (524, array([1])), (529, array([1])), (570, array([1])), (675, array([1])), (682, array([1])), (765, array([1])), (776, array([1])), (828, array([1])), (932, array([1])), (961, array([1])), (996, array([1])), (1002, array([1])), (1006, array([1])), (1107, array([0])), (1113, array([0])), (1139, array([1])), (1143, array([1])), (1147, array([1])), (1156, array([1])), (1158, array([1])), (1195, array([1])), (1204, array([0])), (1235, array([1])), (1268, array([1])), (1325, array([1])), (1331, array([1])), (1338, array([0])), (1346, array([1])), (1373, array([1])), (1395, array([1])), (1431, array([0])), (1498, array([1])), (1532, array([0])), (1569, array([1])), (1593, array([0])), (1606, array([1])), (1627, array([0])), (1632, array([1])), (1761, array([1])), (1769, array([1])), (1785, array([1])), (1818, array([0])), (1895, array([1])), (1919, array([1])), (1929, array([0])), (1937, array([1])), (1976, array([1])), (2044, array([1])), (2055, array([0])), (2070, array([1])), (2116, array([1])), (2214, array([1])), (2275, array([1])), (2363, array([0])), (2378, array([1])), (2380, array([1])), (2461, array([1])), (2482, array([1])), (2493, array([1])), (2549, array([0])), (2561, array([1])), (2570, array([1])), (2578, array([1])), (2642, array([0])), (2657, array([1])), (2658, array([0])), (2690, array([1])), (2733, array([1])), (2750, array([1])), (2755, array([1])), (2861, array([1])), (2881, array([1])), (2903, array([1])), (2924, array([1])), (2932, array([1])), (3011, array([1])), (3046, array([1])), (3049, array([1])), (3056, array([1])), (3069, array([1])), (3086, array([1])), (3100, array([1])), (3110, array([1])), (3124, array([1])), (3161, array([1])), (3165, array([1])), (3208, array([1])), (3251, array([0])), (3304, array([1])), (3341, array([0])), (3364, array([1])), (3391, array([0])), (3395, array([1])), (3412, array([1])), (3461, array([1])), (3551, array([1])), (3571, array([1])), (3580, array([1])), (3590, array([1])), (3593, array([1])), (3595, array([1])), (3597, array([1])), (3638, array([1])), (3641, array([0])), (3678, array([1])), (3746, array([1])), (3782, array([1])), (3785, array([1])), (3788, array([1])), (3789, array([1])), (3816, array([1])), (3864, array([1])), (3874, array([0])), (3876, array([1])), (3906, array([1])), (3997, array([1])), (4014, array([1])), (4018, array([1])), (4021, array([0])), (4114, array([1])), (4130, array([1])), (4224, array([1])), (4258, array([1])), (4274, array([0])), (4356, array([1])), (4384, array([1])), (4469, array([1])), (4551, array([1])), (4578, array([1])), (4690, array([1])), (4772, array([0])), (4774, array([1])), (4782, array([1])), (4785, array([1])), (4842, array([1])), (4931, array([0])), (4945, array([1])), (4992, array([1])), (5005, array([1])), (5038, array([1])), (5088, array([1])), (5121, array([1])), (5129, array([1])), (5168, array([1])), (5174, array([1])), (5198, array([1])), (5222, array([1])), (5230, array([1])), (5233, array([1])), (5253, array([1])), (5285, array([1])), (5292, array([1])), (5299, array([1])), (5316, array([1])), (5337, array([1])), (5377, array([1])), (5420, array([1])), (5488, array([1])), (5510, array([1])), (5523, array([1])), (5537, array([0])), (5555, array([1])), (5565, array([1])), (5669, array([1])), (5695, array([1])), (5706, array([1])), (5733, array([1])), (5743, array([1])), (5786, array([0])), (5839, array([1])), (5876, array([1])), (5886, array([0])), (5926, array([1])), (5956, array([1])), (5991, array([1])), (5997, array([1])), (6036, array([1])), (6056, array([1])), (6102, array([0])), (6150, array([1])), (6165, array([1])), (6185, array([1])), (6282, array([0])), (6328, array([1])), (6339, array([1])), (6340, array([1])), (6376, array([1])), (6381, array([1])), (6405, array([1])), (6409, array([1])), (6459, array([1])), (6469, array([1])), (6472, array([0])), (6493, array([0])), (6496, array([0])), (6540, array([1])), (6571, array([0])), (6582, array([1])), (6623, array([1])), (6658, array([0])), (6719, array([1])), (6751, array([0])), (6759, array([0])), (6786, array([1])), (6798, array([1])), (6858, array([1])), (6888, array([1])), (6891, array([1])), (6903, array([0])), (6966, array([1])), (6998, array([1])), (7005, array([1])), (7050, array([1])), (7086, array([1])), (7096, array([1])), (7156, array([1])), (7178, array([0])), (7181, array([1])), (7202, array([1])), (7215, array([1])), (7257, array([1])), (7299, array([1])), (7321, array([1])), (7331, array([1])), (7388, array([1])), (7411, array([1])), (7415, array([0])), (7426, array([1])), (7476, array([1])), (7512, array([1])), (7546, array([1])), (7564, array([1])), (7575, array([1])), (7596, array([0])), (7647, array([1])), (7649, array([0])), (7665, array([1])), (7673, array([0])), (7711, array([1])), (7746, array([1])), (7791, array([0])), (7826, array([1])), (7839, array([0])), (7861, array([0])), (7896, array([0])), (7972, array([1])), (7989, array([0])), (8015, array([1])), (8107, array([1])), (8140, array([1])), (8166, array([1])), (8177, array([1])), (8178, array([1])), (8203, array([1])), (8227, array([1])), (8231, array([1])), (8298, array([0])), (8386, array([1])), (8419, array([0])), (8456, array([1])), (8459, array([0])), (8487, array([1])), (8644, array([1])), (8659, array([0])), (8694, array([1])), (8745, array([1])), (8859, array([1])), (8888, array([1])), (8903, array([1])), (8921, array([1])), (8928, array([1])), (8963, array([0])), (8968, array([1])), (8976, array([1])), (8999, array([0])), (9020, array([1])), (9022, array([1])), (9027, array([1])), (9043, array([1])), (9094, array([1])), (9160, array([1])), (9168, array([1])), (9174, array([1])), (9199, array([1])), (9244, array([0])), (9284, array([1])), (9287, array([1])), (9348, array([1])), (9375, array([1])), (9383, array([0])), (9694, array([1])), (9739, array([0])), (9742, array([0])), (9818, array([0])), (9873, array([0])), (9886, array([1])), (9912, array([1])), (9913, array([1])), (9917, array([0])), (9934, array([1])), (9956, array([1])), (9983, array([1])), (9986, array([1])), (10036, array([1])), (10066, array([1])), (10097, array([1])), (10129, array([0])), (10137, array([1])), (10143, array([1])), (10160, array([1])), (10169, array([0])), (10241, array([1])), (10242, array([1])), (10258, array([0])), (10326, array([0])), (10347, array([1])), (10382, array([1])), (10404, array([1])), (10456, array([1])), (10461, array([1])), (10507, array([1])), (10521, array([1])), (10530, array([1])), (10601, array([1])), (10662, array([0])), (10677, array([1])), (10715, array([1])), (10732, array([1])), (10769, array([1])), (10817, array([1])), (10888, array([0])), (10925, array([1])), (10931, array([0])), (10955, array([1])), (10976, array([1])), (10993, array([1])), (11018, array([1])), (11036, array([1])), (11058, array([0])), (11095, array([1])), (11128, array([1])), (11164, array([1])), (11173, array([1])), (11200, array([1])), (11232, array([1])), (11234, array([1])), (11245, array([1])), (11259, array([1])), (11285, array([1])), (11290, array([1])), (11324, array([0])), (11329, array([1])), (11382, array([1])), (11468, array([1])), (11504, array([1])), (11508, array([1])), (11510, array([1])), (11540, array([1])), (11578, array([1])), (11601, array([1])), (11614, array([1])), (11668, array([1])), (11693, array([1])), (11714, array([1])), (11739, array([1])), (11821, array([0])), (11836, array([0])), (11844, array([1])), (12020, array([1])), (12052, array([1])), (12056, array([1])), (12070, array([1])), (12120, array([1])), (12152, array([1])), (12197, array([1])), (12201, array([1])), (12217, array([1])), (12234, array([1])), (12250, array([1])), (12255, array([1])), (12293, array([1])), (12323, array([0])), (12338, array([1])), (12339, array([1])), (12344, array([0])), (12353, array([1])), (12383, array([1])), (12411, array([1])), (12436, array([1])), (12437, array([1])), (12467, array([1])), (12539, array([1])), (12616, array([1])), (12624, array([0])), (12650, array([1])), (12657, array([1])), (12698, array([1])), (12706, array([1])), (12758, array([1])), (12762, array([0])), (12783, array([1])), (12785, array([0])), (12786, array([1])), (12795, array([1])), (12849, array([1])), (12874, array([1])), (12896, array([0])), (12956, array([1])), (12959, array([1])), (12994, array([1])), (13009, array([1])), (13026, array([1])), (13033, array([1])), (13039, array([0])), (13076, array([1])), (13110, array([1])), (13122, array([0])), (13140, array([1])), (13228, array([1])), (13272, array([0])), (13275, array([1])), (13278, array([1])), (13317, array([1])), (13330, array([1])), (13351, array([0])), (13352, array([1])), (13387, array([1])), (13413, array([1])), (13448, array([1])), (13476, array([1])), (13480, array([1])), (13525, array([1])), (13527, array([1])), (13528, array([1])), (13660, array([1])), (13690, array([1])), (13698, array([1])), (13757, array([1])), (13758, array([1])), (13769, array([1])), (13780, array([1])), (13797, array([1])), (13804, array([0])), (13835, array([1])), (13908, array([1])), (13910, array([1])), (13934, array([1])), (13940, array([1])), (13945, array([1])), (14015, array([1])), (14034, array([1])), (14058, array([1])), (14143, array([1])), (14172, array([1])), (14184, array([0])), (14223, array([0])), (14271, array([1])), (14303, array([1])), (14307, array([1])), (14314, array([0])), (14336, array([0])), (14384, array([0])), (14413, array([0])), (14455, array([1])), (14497, array([1])), (14527, array([1])), (14683, array([1])), (14684, array([1])), (14704, array([1])), (14887, array([0])), (14898, array([1])), (14918, array([1])), (14923, array([0])), (14934, array([1])), (14999, array([1])), (15000, array([1])), (15016, array([1])), (15025, array([1])), (15030, array([1])), (15082, array([0])), (15094, array([1])), (15155, array([0])), (15160, array([1])), (15181, array([1])), (15193, array([1])), (15202, array([1])), (15240, array([0])), (15252, array([1])), (15268, array([0])), (15274, array([1])), (15279, array([1])), (15329, array([1])), (15352, array([1])), (15410, array([1])), (15512, array([1])), (15536, array([0])), (15628, array([0])), (15684, array([1])), (15698, array([1])), (15757, array([0])), (15777, array([1])), (15834, array([1])), (15872, array([0])), (15954, array([1])), (16033, array([1])), (16048, array([0])), (16074, array([1])), (16077, array([1])), (16192, array([1])), (16208, array([1])), (16243, array([1])), (16244, array([1])), (16257, array([1])), (16316, array([1])), (16367, array([1])), (16399, array([1])), (16403, array([1])), (16407, array([0])), (16409, array([1])), (16515, array([0])), (16516, array([1])), (16543, array([1])), (16557, array([1])), (16566, array([1])), (16585, array([1])), (16591, array([1])), (16607, array([1])), (16623, array([1])), (16632, array([1])), (16641, array([1])), (16666, array([1])), (16667, array([1])), (16769, array([1])), (16810, array([0])), (16859, array([1])), (16863, array([1])), (16883, array([1])), (16894, array([1])), (16921, array([1])), (16976, array([1])), (17007, array([1])), (17064, array([1])), (17073, array([1])), (17120, array([0])), (17123, array([0])), (17134, array([1])), (17160, array([1])), (17167, array([0])), (17176, array([1])), (17187, array([1])), (17199, array([1])), (17221, array([1])), (17307, array([1])), (17314, array([1])), (17331, array([1])), (17352, array([0])), (17389, array([0])), (17412, array([1])), (17433, array([0])), (17438, array([1])), (17451, array([0])), (17468, array([1])), (17475, array([1])), (17529, array([1])), (17606, array([1])), (17629, array([1])), (17677, array([1])), (17704, array([1])), (17712, array([1])), (17748, array([0])), (17779, array([1])), (17782, array([1])), (17818, array([1])), (17932, array([1])), (17966, array([0])), (18020, array([1])), (18056, array([1])), (18091, array([1])), (18096, array([1])), (18101, array([0])), (18105, array([1])), (18121, array([1])), (18134, array([0])), (18143, array([0])), (18154, array([1])), (18184, array([0])), (18204, array([1])), (18230, array([1])), (18259, array([1])), (18299, array([1])), (18312, array([1])), (18394, array([1])), (18532, array([0])), (18535, array([1])), (18647, array([1])), (18683, array([1])), (18722, array([0])), (18765, array([0])), (18780, array([1])), (18788, array([0])), (18805, array([1])), (18928, array([0])), (18976, array([1])), (18999, array([1])), (19005, array([0])), (19031, array([0])), (19041, array([1])), (19068, array([1])), (19102, array([1])), (19118, array([1])), (19190, array([1])), (19268, array([1])), (19275, array([0])), (19290, array([1])), (19318, array([1])), (19370, array([1])), (19386, array([1])), (19411, array([0])), (19448, array([1])), (19479, array([1])), (19493, array([1])), (19560, array([1])), (19570, array([1])), (19576, array([1])), (19624, array([1])), (19625, array([0])), (19627, array([0])), (19637, array([1])), (19657, array([1])), (19664, array([1])), (19724, array([1])), (19727, array([1])), (19729, array([1])), (19808, array([1])), (19818, array([0])), (19942, array([1])), (19972, array([1])), (19977, array([1])), (19993, array([1])), (20023, array([1])), (20051, array([1])), (20082, array([0])), (20202, array([1])), (20277, array([1])), (20283, array([1])), (20294, array([1])), (20324, array([0])), (20377, array([0])), (20401, array([1])), (20416, array([1])), (20419, array([1])), (20454, array([1])), (20467, array([1])), (20468, array([1])), (20475, array([1])), (20562, array([1])), (20610, array([1])), (20627, array([1])), (20706, array([1])), (20710, array([1])), (20724, array([1])), (20725, array([1])), (20806, array([0])), (20832, array([1])), (20851, array([1])), (20852, array([1])), (20902, array([1])), (20904, array([1])), (20940, array([1])), (20984, array([1])), (20992, array([1])), (20999, array([0])), (21012, array([1])), (21084, array([1])), (21154, array([1])), (21157, array([1])), (21159, array([1])), (21169, array([0])), (21198, array([1])), (21209, array([1])), (21210, array([1])), (21222, array([1])), (21227, array([1])), (21230, array([0])), (21232, array([1])), (21253, array([1])), (21286, array([1])), (21301, array([1])), (21306, array([0])), (21317, array([0])), (21325, array([1])), (21362, array([0])), (21411, array([1])), (21454, array([1])), (21481, array([1])), (21483, array([1])), (21492, array([1])), (21500, array([1])), (21524, array([1])), (21526, array([0])), (21554, array([1])), (21572, array([1])), (21608, array([1])), (21615, array([1])), (21621, array([1])), (21647, array([1])), (21730, array([1])), (21742, array([1])), (21780, array([0])), (21833, array([0])), (21852, array([1])), (21893, array([1])), (21921, array([1])), (21953, array([1])), (22006, array([1])), (22008, array([1])), (22080, array([1])), (22128, array([0])), (22152, array([0])), (22164, array([1])), (22195, array([1])), (22215, array([1])), (22220, array([0])), (22227, array([1])), (22279, array([1])), (22280, array([1])), (22298, array([1])), (22327, array([1])), (22360, array([1])), (22413, array([1])), (22500, array([1])), (22503, array([0])), (22515, array([1])), (22551, array([0])), (22561, array([1])), (22743, array([1])), (22821, array([1])), (22827, array([1])), (22835, array([0])), (22841, array([1])), (22843, array([1])), (22854, array([1])), (22884, array([1])), (22914, array([1])), (22957, array([0])), (22961, array([1])), (22964, array([1])), (22967, array([1])), (22980, array([1])), (23039, array([1])), (23174, array([0])), (23189, array([1])), (23216, array([1])), (23262, array([1])), (23311, array([1])), (23355, array([1])), (23386, array([1])), (23395, array([1])), (23408, array([1])), (23433, array([1])), (23469, array([1])), (23506, array([1])), (23512, array([0])), (23543, array([1])), (23627, array([0])), (23634, array([1])), (23635, array([1])), (23648, array([1])), (23725, array([1])), (23791, array([1])), (23843, array([0])), (23935, array([0])), (23950, array([0])), (23983, array([1])), (24011, array([1])), (24022, array([1])), (24097, array([1])), (24098, array([1])), (24107, array([1])), (24144, array([1])), (24178, array([1])), (24204, array([1])), (24206, array([1])), (24225, array([1])), (24259, array([1])), (24296, array([1])), (24302, array([1])), (24408, array([1])), (24488, array([1])), (24528, array([1])), (24540, array([0])), (24552, array([1])), (24579, array([1])), (24598, array([1])), (24606, array([1])), (24629, array([1])), (24642, array([1])), (24647, array([1])), (24649, array([1])), (24659, array([1])), (24699, array([1])), (24707, array([1])), (24759, array([1])), (24825, array([1])), (24851, array([1])), (24857, array([0])), (24858, array([1])), (24888, array([1])), (24895, array([1])), (24915, array([1])), (24916, array([1])), (24961, array([1])), (25000, array([1])), (25106, array([1])), (25133, array([0])), (25148, array([1])), (25212, array([1])), (25213, array([1])), (25227, array([1])), (25313, array([1])), (25374, array([1])), (25398, array([1])), (25492, array([1])), (25567, array([0])), (25578, array([1])), (25592, array([1])), (25707, array([1])), (25745, array([0])), (25773, array([1])), (25833, array([1])), (25837, array([0])), (25858, array([1])), (25862, array([1])), (25883, array([1])), (25900, array([1])), (25906, array([0])), (25965, array([1])), (25972, array([1])), (25992, array([1])), (26003, array([1])), (26046, array([1])), (26058, array([1])), (26085, array([1])), (26089, array([1])), (26102, array([1])), (26125, array([1])), (26286, array([0])), (26303, array([1])), (26311, array([1])), (26364, array([1])), (26371, array([1])), (26445, array([0])), (26454, array([1])), (26458, array([1])), (26468, array([1])), (26480, array([0])), (26517, array([1])), (26536, array([1])), (26543, array([1])), (26545, array([1])), (26562, array([1])), (26565, array([1])), (26569, array([1])), (26583, array([1])), (26607, array([1])), (26622, array([1])), (26623, array([0])), (26658, array([1])), (26676, array([1])), (26679, array([1])), (26697, array([1])), (26714, array([0])), (26758, array([1])), (26761, array([1])), (26840, array([1])), (26861, array([1])), (26880, array([1])), (26937, array([1])), (26949, array([1])), (26955, array([1])), (27025, array([1])), (27052, array([1])), (27061, array([1])), (27066, array([1])), (27080, array([1])), (27092, array([1])), (27118, array([1])), (27127, array([0])), (27142, array([0])), (27157, array([1])), (27188, array([1])), (27192, array([0])), (27220, array([1])), (27230, array([0])), (27253, array([1])), (27271, array([1])), (27289, array([1])), (27298, array([0])), (27301, array([0])), (27369, array([1])), (27399, array([1])), (27425, array([1])), (27448, array([0])), (27483, array([1])), (27488, array([1])), (27514, array([1])), (27557, array([1])), (27570, array([1])), (27637, array([1])), (27693, array([1])), (27741, array([0])), (27749, array([0])), (27774, array([1])), (27790, array([1])), (27815, array([1])), (27856, array([1])), (27894, array([1])), (27895, array([1])), (27898, array([1])), (27908, array([1])), (27942, array([1])), (27982, array([1])), (27998, array([1])), (28001, array([1])), (28009, array([1])), (28042, array([0])), (28065, array([1])), (28088, array([1])), (28096, array([0])), (28142, array([1])), (28151, array([1])), (28177, array([0])), (28240, array([1])), (28256, array([1])), (28307, array([1])), (28355, array([1])), (28357, array([1])), (28410, array([1])), (28469, array([1])), (28471, array([1])), (28491, array([0])), (28516, array([1])), (28596, array([1])), (28597, array([1])), (28604, array([1])), (28628, array([0])), (28630, array([1])), (28650, array([1])), (28661, array([1])), (28663, array([1])), (28700, array([1])), (28719, array([1])), (28728, array([0])), (28732, array([1])), (28742, array([1])), (28767, array([1])), (28773, array([1])), (28822, array([1])), (28824, array([1])), (28881, array([1])), (28934, array([1])), (28956, array([1])), (28986, array([0])), (29057, array([1])), (29059, array([1])), (29072, array([1])), (29104, array([1])), (29133, array([0])), (29253, array([1])), (29258, array([1])), (29268, array([1])), (29274, array([1])), (29302, array([1])), (29329, array([1])), (29340, array([1])), (29391, array([1])), (29422, array([1])), (29430, array([0])), (29440, array([1])), (29473, array([1])), (29484, array([1])), (29494, array([1])), (29500, array([1])), (29534, array([1])), (29597, array([1])), (29602, array([0])), (29695, array([1])), (29746, array([1])), (29752, array([1])), (29756, array([1])), (29778, array([1])), (29790, array([1])), (29859, array([1])), (29904, array([0])), (29939, array([1])), (29948, array([0])), (29994, array([1])), (29997, array([1])), (30069, array([1])), (30149, array([1])), (30192, array([1])), (30254, array([1])), (30274, array([1])), (30300, array([0])), (30317, array([1])), (30321, array([0])), (30370, array([1])), (30405, array([1])), (30417, array([1])), (30440, array([0])), (30478, array([1])), (30489, array([0])), (30516, array([1])), (30527, array([1])), (30529, array([1])), (30536, array([1])), (30545, array([1])), (30619, array([1])), (30664, array([1])), (30670, array([1])), (30681, array([1])), (30705, array([0])), (30714, array([1])), (30743, array([0])), (30758, array([0])), (30792, array([1])), (30823, array([1])), (30847, array([1])), (30857, array([0])), (30874, array([1])), (30886, array([1])), (30901, array([1])), (30928, array([1])), (30998, array([1])), (31045, array([0])), (31073, array([1])), (31102, array([1])), (31109, array([1])), (31111, array([1])), (31118, array([1])), (31150, array([1])), (31197, array([1])), (31215, array([1])), (31229, array([1])), (31232, array([1])), (31249, array([0])), (31334, array([1])), (31352, array([1])), (31445, array([1])), (31466, array([1])), (31472, array([1])), (31520, array([1])), (31526, array([1])), (31533, array([1])), (31620, array([1])), (31626, array([1])), (31643, array([1])), (31714, array([1])), (31723, array([1])), (31752, array([1])), (31850, array([1])), (31898, array([1])), (31900, array([1])), (31926, array([1])), (31940, array([1])), (32006, array([1]))]</t>
+  </si>
+  <si>
+    <t>[(8, array([1])), (24, array([1])), (64, array([1])), (82, array([1])), (109, array([0])), (143, array([1])), (190, array([0])), (194, array([1])), (205, array([1])), (217, array([0])), (230, array([1])), (232, array([0])), (246, array([1])), (248, array([1])), (265, array([0])), (273, array([1])), (281, array([0])), (415, array([1])), (444, array([1])), (524, array([1])), (529, array([1])), (570, array([1])), (650, array([1])), (675, array([1])), (682, array([1])), (755, array([1])), (765, array([1])), (776, array([1])), (828, array([1])), (932, array([1])), (961, array([1])), (996, array([1])), (1002, array([1])), (1006, array([1])), (1107, array([0])), (1113, array([0])), (1139, array([1])), (1143, array([1])), (1147, array([1])), (1156, array([1])), (1158, array([1])), (1195, array([1])), (1204, array([0])), (1235, array([1])), (1268, array([1])), (1325, array([1])), (1331, array([1])), (1338, array([0])), (1346, array([1])), (1367, array([1])), (1373, array([1])), (1395, array([1])), (1431, array([0])), (1498, array([1])), (1532, array([0])), (1569, array([1])), (1579, array([1])), (1593, array([0])), (1606, array([1])), (1627, array([0])), (1632, array([1])), (1710, array([1])), (1747, array([1])), (1761, array([1])), (1769, array([1])), (1785, array([1])), (1818, array([0])), (1895, array([1])), (1919, array([1])), (1929, array([0])), (1937, array([1])), (1946, array([1])), (1976, array([1])), (2044, array([1])), (2055, array([0])), (2070, array([1])), (2072, array([1])), (2116, array([1])), (2214, array([1])), (2275, array([1])), (2363, array([0])), (2378, array([1])), (2380, array([1])), (2424, array([1])), (2461, array([1])), (2482, array([1])), (2493, array([1])), (2549, array([0])), (2561, array([1])), (2570, array([1])), (2571, array([1])), (2578, array([1])), (2642, array([0])), (2657, array([1])), (2658, array([0])), (2690, array([1])), (2733, array([1])), (2750, array([1])), (2755, array([1])), (2861, array([1])), (2881, array([1])), (2903, array([1])), (2924, array([1])), (2932, array([1])), (2966, array([1])), (3011, array([1])), (3040, array([1])), (3046, array([1])), (3049, array([1])), (3056, array([1])), (3069, array([1])), (3086, array([1])), (3100, array([1])), (3110, array([1])), (3124, array([1])), (3161, array([1])), (3165, array([1])), (3208, array([1])), (3217, array([1])), (3251, array([0])), (3304, array([1])), (3341, array([0])), (3364, array([1])), (3391, array([0])), (3395, array([1])), (3410, array([1])), (3412, array([1])), (3461, array([1])), (3551, array([1])), (3571, array([1])), (3580, array([1])), (3590, array([1])), (3593, array([1])), (3595, array([1])), (3597, array([1])), (3638, array([1])), (3641, array([0])), (3678, array([1])), (3746, array([1])), (3782, array([1])), (3785, array([1])), (3788, array([1])), (3789, array([1])), (3816, array([1])), (3864, array([1])), (3874, array([0])), (3876, array([1])), (3906, array([1])), (3997, array([1])), (4014, array([1])), (4018, array([1])), (4021, array([0])), (4041, array([1])), (4114, array([1])), (4130, array([1])), (4224, array([1])), (4258, array([1])), (4274, array([0])), (4356, array([1])), (4384, array([1])), (4463, array([1])), (4469, array([1])), (4478, array([1])), (4551, array([1])), (4578, array([1])), (4621, array([1])), (4659, array([1])), (4690, array([1])), (4772, array([0])), (4774, array([1])), (4782, array([1])), (4785, array([1])), (4842, array([1])), (4931, array([0])), (4945, array([1])), (4992, array([1])), (5005, array([1])), (5032, array([1])), (5038, array([1])), (5059, array([1])), (5088, array([1])), (5121, array([1])), (5129, array([1])), (5168, array([1])), (5174, array([1])), (5198, array([1])), (5222, array([1])), (5230, array([1])), (5233, array([1])), (5253, array([1])), (5285, array([1])), (5292, array([1])), (5299, array([1])), (5316, array([1])), (5337, array([1])), (5377, array([1])), (5420, array([1])), (5488, array([1])), (5510, array([1])), (5523, array([1])), (5537, array([0])), (5555, array([1])), (5565, array([1])), (5658, array([1])), (5669, array([1])), (5695, array([1])), (5706, array([1])), (5733, array([1])), (5743, array([1])), (5786, array([0])), (5839, array([1])), (5876, array([1])), (5886, array([0])), (5926, array([1])), (5956, array([1])), (5991, array([1])), (5997, array([1])), (6030, array([1])), (6036, array([1])), (6056, array([1])), (6102, array([0])), (6111, array([1])), (6150, array([1])), (6165, array([1])), (6185, array([1])), (6282, array([0])), (6312, array([1])), (6328, array([1])), (6339, array([1])), (6340, array([1])), (6368, array([1])), (6376, array([1])), (6381, array([1])), (6405, array([1])), (6409, array([1])), (6459, array([1])), (6469, array([1])), (6472, array([0])), (6493, array([0])), (6496, array([0])), (6540, array([1])), (6571, array([0])), (6582, array([1])), (6623, array([1])), (6658, array([0])), (6719, array([1])), (6731, array([1])), (6751, array([0])), (6759, array([0])), (6786, array([1])), (6798, array([1])), (6858, array([1])), (6888, array([1])), (6891, array([1])), (6903, array([0])), (6940, array([1])), (6966, array([1])), (6998, array([1])), (7005, array([1])), (7050, array([1])), (7086, array([1])), (7096, array([1])), (7156, array([1])), (7178, array([0])), (7181, array([1])), (7188, array([1])), (7202, array([1])), (7215, array([1])), (7257, array([1])), (7299, array([1])), (7321, array([1])), (7331, array([1])), (7388, array([1])), (7411, array([1])), (7415, array([0])), (7426, array([1])), (7476, array([1])), (7512, array([1])), (7539, array([1])), (7546, array([1])), (7564, array([1])), (7575, array([1])), (7596, array([0])), (7642, array([1])), (7647, array([1])), (7649, array([0])), (7665, array([1])), (7673, array([0])), (7711, array([1])), (7746, array([1])), (7791, array([0])), (7804, array([1])), (7826, array([1])), (7839, array([0])), (7861, array([0])), (7896, array([0])), (7931, array([1])), (7972, array([1])), (7989, array([0])), (8015, array([1])), (8036, array([1])), (8107, array([1])), (8140, array([1])), (8166, array([1])), (8177, array([1])), (8178, array([1])), (8195, array([1])), (8203, array([1])), (8227, array([1])), (8231, array([1])), (8298, array([0])), (8386, array([1])), (8419, array([0])), (8456, array([1])), (8459, array([0])), (8487, array([1])), (8582, array([1])), (8592, array([1])), (8644, array([1])), (8659, array([0])), (8694, array([1])), (8745, array([1])), (8859, array([1])), (8876, array([1])), (8888, array([1])), (8903, array([1])), (8921, array([1])), (8928, array([1])), (8963, array([0])), (8968, array([1])), (8976, array([1])), (8999, array([0])), (9020, array([1])), (9022, array([1])), (9027, array([1])), (9043, array([1])), (9094, array([1])), (9158, array([1])), (9160, array([1])), (9168, array([1])), (9174, array([1])), (9199, array([1])), (9234, array([0])), (9244, array([0])), (9284, array([1])), (9287, array([1])), (9348, array([1])), (9375, array([1])), (9383, array([0])), (9639, array([1])), (9694, array([1])), (9739, array([0])), (9742, array([0])), (9818, array([0])), (9873, array([0])), (9886, array([1])), (9912, array([1])), (9913, array([1])), (9917, array([0])), (9934, array([1])), (9956, array([1])), (9983, array([1])), (9986, array([1])), (10036, array([1])), (10066, array([1])), (10097, array([1])), (10129, array([0])), (10137, array([1])), (10139, array([1])), (10143, array([1])), (10160, array([1])), (10169, array([0])), (10241, array([1])), (10242, array([1])), (10258, array([0])), (10326, array([0])), (10347, array([1])), (10382, array([1])), (10404, array([1])), (10456, array([1])), (10461, array([1])), (10507, array([1])), (10521, array([1])), (10530, array([1])), (10601, array([1])), (10615, array([1])), (10662, array([0])), (10677, array([1])), (10715, array([1])), (10730, array([1])), (10732, array([1])), (10769, array([1])), (10785, array([1])), (10800, array([1])), (10817, array([1])), (10870, array([1])), (10888, array([0])), (10925, array([1])), (10931, array([0])), (10955, array([1])), (10976, array([1])), (10993, array([1])), (11018, array([1])), (11036, array([1])), (11058, array([0])), (11095, array([1])), (11128, array([1])), (11160, array([1])), (11164, array([1])), (11173, array([1])), (11200, array([1])), (11232, array([1])), (11234, array([1])), (11242, array([1])), (11245, array([1])), (11259, array([1])), (11285, array([1])), (11290, array([1])), (11324, array([0])), (11329, array([1])), (11382, array([1])), (11468, array([1])), (11504, array([1])), (11508, array([1])), (11510, array([1])), (11540, array([1])), (11578, array([1])), (11601, array([1])), (11614, array([1])), (11668, array([1])), (11687, array([1])), (11693, array([1])), (11714, array([1])), (11739, array([1])), (11821, array([0])), (11836, array([0])), (11844, array([1])), (11912, array([1])), (12020, array([1])), (12052, array([1])), (12056, array([1])), (12070, array([1])), (12120, array([1])), (12152, array([1])), (12191, array([1])), (12197, array([1])), (12201, array([1])), (12217, array([1])), (12234, array([1])), (12250, array([1])), (12255, array([1])), (12293, array([1])), (12323, array([0])), (12330, array([1])), (12338, array([1])), (12339, array([1])), (12344, array([0])), (12349, array([1])), (12353, array([1])), (12383, array([1])), (12411, array([1])), (12436, array([1])), (12437, array([1])), (12467, array([1])), (12539, array([1])), (12574, array([1])), (12616, array([1])), (12624, array([0])), (12650, array([1])), (12657, array([1])), (12698, array([1])), (12706, array([1])), (12758, array([1])), (12762, array([0])), (12783, array([1])), (12785, array([0])), (12786, array([1])), (12795, array([1])), (12833, array([1])), (12849, array([1])), (12874, array([1])), (12896, array([0])), (12918, array([1])), (12922, array([1])), (12956, array([1])), (12959, array([1])), (12994, array([1])), (13009, array([1])), (13026, array([1])), (13033, array([1])), (13039, array([0])), (13048, array([1])), (13076, array([1])), (13092, array([1])), (13110, array([1])), (13122, array([0])), (13140, array([1])), (13228, array([1])), (13272, array([0])), (13275, array([1])), (13278, array([1])), (13317, array([1])), (13330, array([1])), (13351, array([0])), (13352, array([1])), (13387, array([1])), (13413, array([1])), (13448, array([1])), (13476, array([1])), (13480, array([1])), (13525, array([1])), (13527, array([1])), (13528, array([1])), (13627, array([1])), (13660, array([1])), (13690, array([1])), (13698, array([1])), (13757, array([1])), (13758, array([1])), (13769, array([1])), (13780, array([1])), (13797, array([1])), (13804, array([0])), (13835, array([1])), (13908, array([1])), (13910, array([1])), (13934, array([1])), (13940, array([1])), (13945, array([1])), (14015, array([1])), (14034, array([1])), (14058, array([1])), (14135, array([1])), (14143, array([1])), (14172, array([1])), (14184, array([0])), (14223, array([0])), (14271, array([1])), (14303, array([1])), (14307, array([1])), (14314, array([0])), (14336, array([0])), (14384, array([0])), (14413, array([0])), (14455, array([1])), (14497, array([1])), (14527, array([1])), (14678, array([1])), (14683, array([1])), (14684, array([1])), (14704, array([1])), (14803, array([1])), (14887, array([0])), (14898, array([1])), (14918, array([1])), (14923, array([0])), (14934, array([1])), (14991, array([1])), (14999, array([1])), (15000, array([1])), (15016, array([1])), (15025, array([1])), (15030, array([1])), (15052, array([1])), (15082, array([0])), (15094, array([1])), (15155, array([0])), (15160, array([1])), (15181, array([1])), (15193, array([1])), (15202, array([1])), (15240, array([0])), (15252, array([1])), (15268, array([0])), (15274, array([1])), (15279, array([1])), (15329, array([1])), (15352, array([1])), (15395, array([1])), (15410, array([1])), (15512, array([1])), (15536, array([0])), (15547, array([1])), (15628, array([0])), (15684, array([1])), (15698, array([1])), (15757, array([0])), (15777, array([1])), (15834, array([1])), (15872, array([0])), (15954, array([1])), (16033, array([1])), (16048, array([0])), (16074, array([1])), (16077, array([1])), (16192, array([1])), (16195, array([1])), (16208, array([1])), (16243, array([1])), (16244, array([1])), (16257, array([1])), (16265, array([1])), (16316, array([1])), (16367, array([1])), (16399, array([1])), (16403, array([1])), (16407, array([0])), (16409, array([1])), (16480, array([1])), (16515, array([0])), (16516, array([1])), (16543, array([1])), (16557, array([1])), (16566, array([1])), (16585, array([1])), (16591, array([1])), (16607, array([1])), (16623, array([1])), (16632, array([1])), (16641, array([1])), (16666, array([1])), (16667, array([1])), (16769, array([1])), (16810, array([0])), (16859, array([1])), (16863, array([1])), (16883, array([1])), (16889, array([1])), (16894, array([1])), (16921, array([1])), (16976, array([1])), (17007, array([1])), (17049, array([1])), (17064, array([1])), (17073, array([1])), (17120, array([0])), (17123, array([0])), (17134, array([1])), (17160, array([1])), (17167, array([0])), (17176, array([1])), (17187, array([1])), (17199, array([1])), (17221, array([1])), (17240, array([1])), (17307, array([1])), (17314, array([1])), (17331, array([1])), (17352, array([0])), (17389, array([0])), (17399, array([1])), (17412, array([1])), (17433, array([0])), (17438, array([1])), (17451, array([0])), (17468, array([1])), (17475, array([1])), (17529, array([1])), (17606, array([1])), (17629, array([1])), (17677, array([1])), (17704, array([1])), (17712, array([1])), (17728, array([1])), (17735, array([1])), (17748, array([0])), (17779, array([1])), (17782, array([1])), (17818, array([1])), (17859, array([1])), (17881, array([0])), (17932, array([1])), (17966, array([0])), (18020, array([1])), (18056, array([1])), (18091, array([1])), (18096, array([1])), (18101, array([0])), (18105, array([1])), (18112, array([1])), (18121, array([1])), (18134, array([0])), (18143, array([0])), (18154, array([1])), (18184, array([0])), (18204, array([1])), (18230, array([1])), (18259, array([1])), (18299, array([1])), (18312, array([1])), (18394, array([1])), (18532, array([0])), (18535, array([1])), (18647, array([1])), (18683, array([1])), (18722, array([0])), (18765, array([0])), (18780, array([1])), (18788, array([0])), (18805, array([1])), (18928, array([0])), (18976, array([1])), (18999, array([1])), (19005, array([0])), (19031, array([0])), (19041, array([1])), (19068, array([1])), (19102, array([1])), (19118, array([1])), (19182, array([1])), (19187, array([1])), (19190, array([1])), (19258, array([1])), (19268, array([1])), (19275, array([0])), (19290, array([1])), (19318, array([1])), (19370, array([1])), (19386, array([1])), (19411, array([0])), (19448, array([1])), (19479, array([1])), (19493, array([1])), (19560, array([1])), (19570, array([1])), (19576, array([1])), (19624, array([1])), (19625, array([0])), (19627, array([0])), (19635, array([1])), (19637, array([1])), (19657, array([1])), (19664, array([1])), (19724, array([1])), (19727, array([1])), (19729, array([1])), (19807, array([1])), (19808, array([1])), (19818, array([0])), (19885, array([1])), (19942, array([1])), (19972, array([1])), (19977, array([1])), (19993, array([1])), (20023, array([1])), (20051, array([1])), (20082, array([0])), (20202, array([1])), (20277, array([1])), (20283, array([1])), (20294, array([1])), (20320, array([1])), (20324, array([0])), (20377, array([0])), (20401, array([1])), (20416, array([1])), (20419, array([1])), (20454, array([1])), (20467, array([1])), (20468, array([1])), (20475, array([1])), (20562, array([1])), (20610, array([1])), (20627, array([1])), (20706, array([1])), (20710, array([1])), (20724, array([1])), (20725, array([1])), (20806, array([0])), (20832, array([1])), (20847, array([1])), (20851, array([1])), (20852, array([1])), (20902, array([1])), (20904, array([1])), (20927, array([1])), (20940, array([1])), (20984, array([1])), (20992, array([1])), (20999, array([0])), (21012, array([1])), (21084, array([1])), (21154, array([1])), (21157, array([1])), (21159, array([1])), (21169, array([0])), (21198, array([1])), (21209, array([1])), (21210, array([1])), (21222, array([1])), (21227, array([1])), (21230, array([0])), (21232, array([1])), (21253, array([1])), (21259, array([1])), (21286, array([1])), (21301, array([1])), (21306, array([0])), (21317, array([0])), (21325, array([1])), (21362, array([0])), (21411, array([1])), (21454, array([1])), (21472, array([1])), (21478, array([1])), (21481, array([1])), (21483, array([1])), (21492, array([1])), (21500, array([1])), (21524, array([1])), (21526, array([0])), (21554, array([1])), (21572, array([1])), (21608, array([1])), (21615, array([1])), (21621, array([1])), (21647, array([1])), (21730, array([1])), (21742, array([1])), (21780, array([0])), (21823, array([1])), (21833, array([0])), (21852, array([1])), (21893, array([1])), (21921, array([1])), (21953, array([1])), (22006, array([1])), (22008, array([1])), (22080, array([1])), (22128, array([0])), (22152, array([0])), (22164, array([1])), (22195, array([1])), (22215, array([1])), (22220, array([0])), (22227, array([1])), (22279, array([1])), (22280, array([1])), (22297, array([1])), (22298, array([1])), (22327, array([1])), (22341, array([1])), (22360, array([1])), (22413, array([1])), (22500, array([1])), (22503, array([0])), (22509, array([1])), (22515, array([1])), (22551, array([0])), (22560, array([1])), (22561, array([1])), (22620, array([0])), (22623, array([1])), (22743, array([1])), (22821, array([1])), (22827, array([1])), (22835, array([0])), (22841, array([1])), (22843, array([1])), (22854, array([1])), (22862, array([1])), (22884, array([1])), (22886, array([1])), (22914, array([1])), (22957, array([0])), (22961, array([1])), (22964, array([1])), (22967, array([1])), (22980, array([1])), (23039, array([1])), (23174, array([0])), (23189, array([1])), (23216, array([1])), (23262, array([1])), (23311, array([1])), (23352, array([1])), (23355, array([1])), (23386, array([1])), (23395, array([1])), (23408, array([1])), (23433, array([1])), (23469, array([1])), (23506, array([1])), (23507, array([1])), (23512, array([0])), (23543, array([1])), (23627, array([0])), (23634, array([1])), (23635, array([1])), (23648, array([1])), (23725, array([1])), (23759, array([1])), (23791, array([1])), (23843, array([0])), (23935, array([0])), (23945, array([1])), (23950, array([0])), (23983, array([1])), (23984, array([1])), (24011, array([1])), (24022, array([1])), (24097, array([1])), (24098, array([1])), (24107, array([1])), (24144, array([1])), (24152, array([1])), (24178, array([1])), (24204, array([1])), (24206, array([1])), (24225, array([1])), (24259, array([1])), (24296, array([1])), (24302, array([1])), (24408, array([1])), (24488, array([1])), (24528, array([1])), (24540, array([0])), (24552, array([1])), (24579, array([1])), (24598, array([1])), (24606, array([1])), (24629, array([1])), (24642, array([1])), (24647, array([1])), (24649, array([1])), (24658, array([1])), (24659, array([1])), (24699, array([1])), (24707, array([1])), (24759, array([1])), (24797, array([1])), (24825, array([1])), (24851, array([1])), (24857, array([0])), (24858, array([1])), (24888, array([1])), (24895, array([1])), (24915, array([1])), (24916, array([1])), (24961, array([1])), (25000, array([1])), (25070, array([1])), (25106, array([1])), (25133, array([0])), (25148, array([1])), (25212, array([1])), (25213, array([1])), (25227, array([1])), (25313, array([1])), (25374, array([1])), (25398, array([1])), (25492, array([1])), (25567, array([0])), (25578, array([1])), (25592, array([1])), (25707, array([1])), (25745, array([0])), (25773, array([1])), (25833, array([1])), (25837, array([0])), (25858, array([1])), (25862, array([1])), (25883, array([1])), (25900, array([1])), (25906, array([0])), (25965, array([1])), (25972, array([1])), (25992, array([1])), (26003, array([1])), (26046, array([1])), (26058, array([1])), (26085, array([1])), (26089, array([1])), (26102, array([1])), (26125, array([1])), (26167, array([1])), (26286, array([0])), (26303, array([1])), (26311, array([1])), (26352, array([1])), (26364, array([1])), (26366, array([1])), (26371, array([1])), (26445, array([0])), (26454, array([1])), (26458, array([1])), (26468, array([1])), (26475, array([1])), (26480, array([0])), (26482, array([1])), (26517, array([1])), (26536, array([1])), (26543, array([1])), (26545, array([1])), (26562, array([1])), (26565, array([1])), (26569, array([1])), (26583, array([1])), (26607, array([1])), (26622, array([1])), (26623, array([0])), (26641, array([1])), (26658, array([1])), (26676, array([1])), (26679, array([1])), (26697, array([1])), (26714, array([0])), (26758, array([1])), (26761, array([1])), (26821, array([1])), (26840, array([1])), (26861, array([1])), (26880, array([1])), (26937, array([1])), (26949, array([1])), (26955, array([1])), (27025, array([1])), (27052, array([1])), (27061, array([1])), (27066, array([1])), (27080, array([1])), (27092, array([1])), (27118, array([1])), (27127, array([0])), (27142, array([0])), (27157, array([1])), (27188, array([1])), (27192, array([0])), (27220, array([1])), (27230, array([0])), (27253, array([1])), (27271, array([1])), (27281, array([1])), (27289, array([1])), (27298, array([0])), (27301, array([0])), (27369, array([1])), (27399, array([1])), (27425, array([1])), (27448, array([0])), (27478, array([1])), (27483, array([1])), (27488, array([1])), (27514, array([1])), (27557, array([1])), (27570, array([1])), (27637, array([1])), (27693, array([1])), (27741, array([0])), (27749, array([0])), (27774, array([1])), (27790, array([1])), (27810, array([1])), (27815, array([1])), (27856, array([1])), (27894, array([1])), (27895, array([1])), (27898, array([1])), (27908, array([1])), (27942, array([1])), (27982, array([1])), (27998, array([1])), (28001, array([1])), (28009, array([1])), (28042, array([0])), (28065, array([1])), (28088, array([1])), (28096, array([0])), (28142, array([1])), (28151, array([1])), (28177, array([0])), (28181, array([1])), (28193, array([1])), (28240, array([1])), (28256, array([1])), (28283, array([1])), (28307, array([1])), (28355, array([1])), (28357, array([1])), (28410, array([1])), (28469, array([1])), (28471, array([1])), (28491, array([0])), (28516, array([1])), (28596, array([1])), (28597, array([1])), (28604, array([1])), (28628, array([0])), (28630, array([1])), (28650, array([1])), (28659, array([1])), (28661, array([1])), (28663, array([1])), (28669, array([1])), (28700, array([1])), (28719, array([1])), (28728, array([0])), (28732, array([1])), (28742, array([1])), (28767, array([1])), (28773, array([1])), (28822, array([1])), (28824, array([1])), (28881, array([1])), (28934, array([1])), (28956, array([1])), (28986, array([0])), (29057, array([1])), (29059, array([1])), (29072, array([1])), (29080, array([1])), (29104, array([1])), (29133, array([0])), (29247, array([0])), (29253, array([1])), (29258, array([1])), (29268, array([1])), (29274, array([1])), (29278, array([1])), (29302, array([1])), (29329, array([1])), (29340, array([1])), (29391, array([1])), (29422, array([1])), (29430, array([0])), (29440, array([1])), (29473, array([1])), (29484, array([1])), (29494, array([1])), (29500, array([1])), (29534, array([1])), (29597, array([1])), (29602, array([0])), (29695, array([1])), (29746, array([1])), (29752, array([1])), (29756, array([1])), (29778, array([1])), (29790, array([1])), (29859, array([1])), (29904, array([0])), (29939, array([1])), (29948, array([0])), (29953, array([1])), (29994, array([1])), (29997, array([1])), (30069, array([1])), (30149, array([1])), (30192, array([1])), (30231, array([1])), (30254, array([1])), (30274, array([1])), (30300, array([0])), (30317, array([1])), (30321, array([0])), (30332, array([1])), (30370, array([1])), (30405, array([1])), (30417, array([1])), (30440, array([0])), (30478, array([1])), (30489, array([0])), (30516, array([1])), (30527, array([1])), (30529, array([1])), (30536, array([1])), (30545, array([1])), (30619, array([1])), (30664, array([1])), (30670, array([1])), (30681, array([1])), (30705, array([0])), (30714, array([1])), (30743, array([0])), (30758, array([0])), (30792, array([1])), (30823, array([1])), (30847, array([1])), (30857, array([0])), (30874, array([1])), (30886, array([1])), (30901, array([1])), (30928, array([1])), (30998, array([1])), (31045, array([0])), (31073, array([1])), (31102, array([1])), (31109, array([1])), (31111, array([1])), (31118, array([1])), (31150, array([1])), (31197, array([1])), (31215, array([1])), (31229, array([1])), (31232, array([1])), (31249, array([0])), (31330, array([1])), (31334, array([1])), (31337, array([1])), (31352, array([1])), (31445, array([1])), (31466, array([1])), (31472, array([1])), (31520, array([1])), (31526, array([1])), (31533, array([1])), (31620, array([1])), (31626, array([1])), (31643, array([1])), (31714, array([1])), (31723, array([1])), (31752, array([1])), (31850, array([1])), (31898, array([1])), (31900, array([1])), (31926, array([1])), (31940, array([1])), (32006, array([1]))]</t>
+  </si>
+  <si>
+    <t>[(8, array([1])), (24, array([1])), (64, array([1])), (82, array([1])), (109, array([0])), (143, array([1])), (190, array([0])), (194, array([1])), (205, array([1])), (217, array([0])), (230, array([1])), (232, array([0])), (246, array([1])), (248, array([1])), (265, array([0])), (273, array([1])), (281, array([0])), (415, array([1])), (444, array([1])), (524, array([1])), (529, array([1])), (570, array([1])), (650, array([1])), (675, array([1])), (682, array([1])), (755, array([1])), (765, array([1])), (776, array([1])), (828, array([1])), (899, array([1])), (932, array([1])), (961, array([1])), (996, array([1])), (1002, array([1])), (1006, array([1])), (1107, array([0])), (1113, array([0])), (1139, array([1])), (1143, array([1])), (1147, array([1])), (1156, array([1])), (1158, array([1])), (1195, array([1])), (1204, array([0])), (1224, array([1])), (1235, array([1])), (1268, array([1])), (1325, array([1])), (1331, array([1])), (1338, array([0])), (1346, array([1])), (1367, array([1])), (1373, array([1])), (1395, array([1])), (1431, array([0])), (1498, array([1])), (1532, array([0])), (1544, array([1])), (1569, array([1])), (1579, array([1])), (1593, array([0])), (1606, array([1])), (1627, array([0])), (1632, array([1])), (1710, array([1])), (1747, array([1])), (1761, array([1])), (1769, array([1])), (1785, array([1])), (1818, array([0])), (1895, array([1])), (1919, array([1])), (1929, array([0])), (1937, array([1])), (1946, array([1])), (1976, array([1])), (2044, array([1])), (2055, array([0])), (2070, array([1])), (2072, array([1])), (2116, array([1])), (2214, array([1])), (2275, array([1])), (2363, array([0])), (2378, array([1])), (2380, array([1])), (2424, array([1])), (2461, array([1])), (2482, array([1])), (2493, array([1])), (2549, array([0])), (2561, array([1])), (2570, array([1])), (2571, array([1])), (2578, array([1])), (2642, array([0])), (2657, array([1])), (2658, array([0])), (2690, array([1])), (2724, array([1])), (2733, array([1])), (2750, array([1])), (2755, array([1])), (2825, array([0])), (2861, array([1])), (2881, array([1])), (2903, array([1])), (2924, array([1])), (2932, array([1])), (2966, array([1])), (3011, array([1])), (3040, array([1])), (3046, array([1])), (3049, array([1])), (3056, array([1])), (3069, array([1])), (3086, array([1])), (3100, array([1])), (3110, array([1])), (3124, array([1])), (3161, array([1])), (3165, array([1])), (3181, array([1])), (3208, array([1])), (3217, array([1])), (3251, array([0])), (3304, array([1])), (3341, array([0])), (3364, array([1])), (3391, array([0])), (3395, array([1])), (3410, array([1])), (3412, array([1])), (3415, array([1])), (3461, array([1])), (3551, array([1])), (3571, array([1])), (3580, array([1])), (3590, array([1])), (3593, array([1])), (3595, array([1])), (3597, array([1])), (3638, array([1])), (3641, array([0])), (3678, array([1])), (3746, array([1])), (3782, array([1])), (3785, array([1])), (3788, array([1])), (3789, array([1])), (3816, array([1])), (3860, array([1])), (3864, array([1])), (3874, array([0])), (3875, array([1])), (3876, array([1])), (3889, array([1])), (3906, array([1])), (3997, array([1])), (4014, array([1])), (4018, array([1])), (4021, array([0])), (4041, array([1])), (4114, array([1])), (4130, array([1])), (4224, array([1])), (4258, array([1])), (4274, array([0])), (4356, array([1])), (4384, array([1])), (4417, array([1])), (4463, array([1])), (4469, array([1])), (4478, array([1])), (4551, array([1])), (4578, array([1])), (4621, array([1])), (4659, array([1])), (4690, array([1])), (4772, array([0])), (4774, array([1])), (4782, array([1])), (4785, array([1])), (4842, array([1])), (4931, array([0])), (4945, array([1])), (4992, array([1])), (5005, array([1])), (5032, array([1])), (5038, array([1])), (5059, array([1])), (5088, array([1])), (5121, array([1])), (5129, array([1])), (5168, array([1])), (5174, array([1])), (5198, array([1])), (5222, array([1])), (5230, array([1])), (5233, array([1])), (5253, array([1])), (5285, array([1])), (5292, array([1])), (5299, array([1])), (5316, array([1])), (5337, array([1])), (5341, array([1])), (5377, array([1])), (5420, array([1])), (5433, array([1])), (5457, array([1])), (5488, array([1])), (5510, array([1])), (5523, array([1])), (5537, array([0])), (5555, array([1])), (5565, array([1])), (5566, array([1])), (5658, array([1])), (5669, array([1])), (5695, array([1])), (5706, array([1])), (5727, array([1])), (5733, array([1])), (5743, array([1])), (5786, array([0])), (5839, array([1])), (5873, array([1])), (5876, array([1])), (5886, array([0])), (5926, array([1])), (5956, array([1])), (5991, array([1])), (5997, array([1])), (6030, array([1])), (6036, array([1])), (6056, array([1])), (6102, array([0])), (6111, array([1])), (6150, array([1])), (6165, array([1])), (6185, array([1])), (6282, array([0])), (6312, array([1])), (6328, array([1])), (6339, array([1])), (6340, array([1])), (6368, array([1])), (6376, array([1])), (6381, array([1])), (6405, array([1])), (6409, array([1])), (6459, array([1])), (6469, array([1])), (6472, array([0])), (6493, array([0])), (6496, array([0])), (6540, array([1])), (6571, array([0])), (6582, array([1])), (6623, array([1])), (6658, array([0])), (6683, array([1])), (6715, array([1])), (6719, array([1])), (6731, array([1])), (6751, array([0])), (6759, array([0])), (6760, array([1])), (6786, array([1])), (6798, array([1])), (6858, array([1])), (6888, array([1])), (6891, array([1])), (6903, array([0])), (6909, array([1])), (6940, array([1])), (6966, array([1])), (6998, array([1])), (7005, array([1])), (7050, array([1])), (7086, array([1])), (7096, array([1])), (7156, array([1])), (7178, array([0])), (7181, array([1])), (7188, array([1])), (7202, array([1])), (7215, array([1])), (7257, array([1])), (7299, array([1])), (7321, array([1])), (7331, array([1])), (7388, array([1])), (7411, array([1])), (7415, array([0])), (7426, array([1])), (7476, array([1])), (7512, array([1])), (7539, array([1])), (7546, array([1])), (7564, array([1])), (7575, array([1])), (7596, array([0])), (7642, array([1])), (7647, array([1])), (7649, array([0])), (7665, array([1])), (7673, array([0])), (7711, array([1])), (7746, array([1])), (7791, array([0])), (7804, array([1])), (7826, array([1])), (7839, array([0])), (7861, array([0])), (7896, array([0])), (7931, array([1])), (7972, array([1])), (7989, array([0])), (8015, array([1])), (8036, array([1])), (8107, array([1])), (8140, array([1])), (8166, array([1])), (8177, array([1])), (8178, array([1])), (8195, array([1])), (8203, array([1])), (8227, array([1])), (8231, array([1])), (8271, array([1])), (8298, array([0])), (8386, array([1])), (8419, array([0])), (8456, array([1])), (8459, array([0])), (8487, array([1])), (8582, array([1])), (8592, array([1])), (8644, array([1])), (8659, array([0])), (8694, array([1])), (8745, array([1])), (8859, array([1])), (8876, array([1])), (8888, array([1])), (8903, array([1])), (8921, array([1])), (8928, array([1])), (8963, array([0])), (8968, array([1])), (8976, array([1])), (8999, array([0])), (9002, array([1])), (9020, array([1])), (9022, array([1])), (9027, array([1])), (9043, array([1])), (9078, array([1])), (9094, array([1])), (9158, array([1])), (9160, array([1])), (9168, array([1])), (9174, array([1])), (9199, array([1])), (9234, array([0])), (9244, array([0])), (9284, array([1])), (9287, array([1])), (9348, array([1])), (9375, array([1])), (9383, array([0])), (9639, array([1])), (9694, array([1])), (9739, array([0])), (9742, array([0])), (9818, array([0])), (9873, array([0])), (9886, array([1])), (9912, array([1])), (9913, array([1])), (9917, array([0])), (9934, array([1])), (9944, array([1])), (9956, array([1])), (9983, array([1])), (9986, array([1])), (10036, array([1])), (10066, array([1])), (10097, array([1])), (10129, array([0])), (10137, array([1])), (10139, array([1])), (10143, array([1])), (10160, array([1])), (10169, array([0])), (10241, array([1])), (10242, array([1])), (10258, array([0])), (10326, array([0])), (10347, array([1])), (10382, array([1])), (10404, array([1])), (10456, array([1])), (10461, array([1])), (10507, array([1])), (10521, array([1])), (10530, array([1])), (10539, array([1])), (10601, array([1])), (10602, array([1])), (10615, array([1])), (10662, array([0])), (10677, array([1])), (10715, array([1])), (10730, array([1])), (10732, array([1])), (10769, array([1])), (10785, array([1])), (10800, array([1])), (10817, array([1])), (10870, array([1])), (10888, array([0])), (10925, array([1])), (10931, array([0])), (10935, array([1])), (10955, array([1])), (10976, array([1])), (10993, array([1])), (11018, array([1])), (11036, array([1])), (11058, array([0])), (11078, array([1])), (11095, array([1])), (11128, array([1])), (11160, array([1])), (11164, array([1])), (11173, array([1])), (11200, array([1])), (11232, array([1])), (11234, array([1])), (11242, array([1])), (11245, array([1])), (11259, array([1])), (11285, array([1])), (11290, array([1])), (11324, array([0])), (11329, array([1])), (11382, array([1])), (11468, array([1])), (11504, array([1])), (11508, array([1])), (11510, array([1])), (11521, array([1])), (11540, array([1])), (11578, array([1])), (11601, array([1])), (11614, array([1])), (11668, array([1])), (11687, array([1])), (11693, array([1])), (11714, array([1])), (11739, array([1])), (11821, array([0])), (11836, array([0])), (11844, array([1])), (11912, array([1])), (12020, array([1])), (12052, array([1])), (12056, array([1])), (12070, array([1])), (12120, array([1])), (12152, array([1])), (12191, array([1])), (12197, array([1])), (12201, array([1])), (12217, array([1])), (12234, array([1])), (12250, array([1])), (12255, array([1])), (12293, array([1])), (12323, array([0])), (12330, array([1])), (12338, array([1])), (12339, array([1])), (12344, array([0])), (12349, array([1])), (12353, array([1])), (12383, array([1])), (12411, array([1])), (12436, array([1])), (12437, array([1])), (12467, array([1])), (12539, array([1])), (12574, array([1])), (12598, array([1])), (12616, array([1])), (12624, array([0])), (12650, array([1])), (12657, array([1])), (12698, array([1])), (12706, array([1])), (12758, array([1])), (12762, array([0])), (12783, array([1])), (12785, array([0])), (12786, array([1])), (12795, array([1])), (12829, array([1])), (12833, array([1])), (12849, array([1])), (12874, array([1])), (12896, array([0])), (12918, array([1])), (12922, array([1])), (12956, array([1])), (12959, array([1])), (12994, array([1])), (13009, array([1])), (13026, array([1])), (13033, array([1])), (13039, array([0])), (13048, array([1])), (13076, array([1])), (13092, array([1])), (13110, array([1])), (13122, array([0])), (13140, array([1])), (13225, array([1])), (13228, array([1])), (13272, array([0])), (13275, array([1])), (13278, array([1])), (13317, array([1])), (13330, array([1])), (13351, array([0])), (13352, array([1])), (13386, array([1])), (13387, array([1])), (13413, array([1])), (13448, array([1])), (13476, array([1])), (13480, array([1])), (13515, array([0])), (13525, array([1])), (13527, array([1])), (13528, array([1])), (13577, array([1])), (13627, array([1])), (13660, array([1])), (13690, array([1])), (13698, array([1])), (13757, array([1])), (13758, array([1])), (13769, array([1])), (13780, array([1])), (13797, array([1])), (13804, array([0])), (13835, array([1])), (13908, array([1])), (13910, array([1])), (13934, array([1])), (13940, array([1])), (13945, array([1])), (14015, array([1])), (14034, array([1])), (14058, array([1])), (14135, array([1])), (14143, array([1])), (14172, array([1])), (14184, array([0])), (14223, array([0])), (14241, array([1])), (14271, array([1])), (14303, array([1])), (14307, array([1])), (14314, array([0])), (14336, array([0])), (14384, array([0])), (14413, array([0])), (14455, array([1])), (14497, array([1])), (14509, array([1])), (14527, array([1])), (14631, array([1])), (14678, array([1])), (14683, array([1])), (14684, array([1])), (14704, array([1])), (14803, array([1])), (14887, array([0])), (14898, array([1])), (14918, array([1])), (14923, array([0])), (14934, array([1])), (14991, array([1])), (14999, array([1])), (15000, array([1])), (15016, array([1])), (15025, array([1])), (15030, array([1])), (15052, array([1])), (15082, array([0])), (15094, array([1])), (15155, array([0])), (15160, array([1])), (15181, array([1])), (15193, array([1])), (15202, array([1])), (15240, array([0])), (15252, array([1])), (15268, array([0])), (15274, array([1])), (15279, array([1])), (15329, array([1])), (15352, array([1])), (15395, array([1])), (15410, array([1])), (15512, array([1])), (15536, array([0])), (15547, array([1])), (15628, array([0])), (15684, array([1])), (15698, array([1])), (15757, array([0])), (15777, array([1])), (15834, array([1])), (15872, array([0])), (15954, array([1])), (16033, array([1])), (16048, array([0])), (16074, array([1])), (16077, array([1])), (16184, array([1])), (16192, array([1])), (16195, array([1])), (16208, array([1])), (16243, array([1])), (16244, array([1])), (16257, array([1])), (16265, array([1])), (16316, array([1])), (16367, array([1])), (16399, array([1])), (16403, array([1])), (16407, array([0])), (16409, array([1])), (16480, array([1])), (16515, array([0])), (16516, array([1])), (16543, array([1])), (16557, array([1])), (16566, array([1])), (16585, array([1])), (16591, array([1])), (16607, array([1])), (16623, array([1])), (16632, array([1])), (16641, array([1])), (16666, array([1])), (16667, array([1])), (16769, array([1])), (16810, array([0])), (16859, array([1])), (16863, array([1])), (16883, array([1])), (16889, array([1])), (16894, array([1])), (16921, array([1])), (16976, array([1])), (17007, array([1])), (17049, array([1])), (17064, array([1])), (17073, array([1])), (17120, array([0])), (17123, array([0])), (17134, array([1])), (17160, array([1])), (17167, array([0])), (17176, array([1])), (17187, array([1])), (17199, array([1])), (17221, array([1])), (17240, array([1])), (17307, array([1])), (17314, array([1])), (17331, array([1])), (17352, array([0])), (17389, array([0])), (17399, array([1])), (17412, array([1])), (17433, array([0])), (17438, array([1])), (17451, array([0])), (17468, array([1])), (17475, array([1])), (17529, array([1])), (17581, array([1])), (17606, array([1])), (17629, array([1])), (17677, array([1])), (17704, array([1])), (17712, array([1])), (17728, array([1])), (17735, array([1])), (17748, array([0])), (17779, array([1])), (17782, array([1])), (17801, array([1])), (17818, array([1])), (17859, array([1])), (17881, array([0])), (17932, array([1])), (17966, array([0])), (18020, array([1])), (18056, array([1])), (18091, array([1])), (18096, array([1])), (18101, array([0])), (18105, array([1])), (18112, array([1])), (18121, array([1])), (18134, array([0])), (18143, array([0])), (18154, array([1])), (18184, array([0])), (18204, array([1])), (18230, array([1])), (18259, array([1])), (18299, array([1])), (18312, array([1])), (18335, array([1])), (18394, array([1])), (18532, array([0])), (18535, array([1])), (18561, array([1])), (18647, array([1])), (18683, array([1])), (18722, array([0])), (18765, array([0])), (18780, array([1])), (18788, array([0])), (18805, array([1])), (18928, array([0])), (18949, array([0])), (18976, array([1])), (18999, array([1])), (19005, array([0])), (19031, array([0])), (19041, array([1])), (19068, array([1])), (19102, array([1])), (19118, array([1])), (19182, array([1])), (19187, array([1])), (19190, array([1])), (19258, array([1])), (19268, array([1])), (19275, array([0])), (19278, array([1])), (19290, array([1])), (19318, array([1])), (19370, array([1])), (19386, array([1])), (19411, array([0])), (19448, array([1])), (19479, array([1])), (19493, array([1])), (19560, array([1])), (19570, array([1])), (19576, array([1])), (19624, array([1])), (19625, array([0])), (19627, array([0])), (19635, array([1])), (19637, array([1])), (19657, array([1])), (19664, array([1])), (19724, array([1])), (19727, array([1])), (19729, array([1])), (19807, array([1])), (19808, array([1])), (19818, array([0])), (19885, array([1])), (19942, array([1])), (19972, array([1])), (19977, array([1])), (19993, array([1])), (20023, array([1])), (20051, array([1])), (20082, array([0])), (20202, array([1])), (20277, array([1])), (20283, array([1])), (20294, array([1])), (20320, array([1])), (20324, array([0])), (20377, array([0])), (20399, array([1])), (20401, array([1])), (20416, array([1])), (20419, array([1])), (20454, array([1])), (20467, array([1])), (20468, array([1])), (20475, array([1])), (20562, array([1])), (20610, array([1])), (20627, array([1])), (20706, array([1])), (20710, array([1])), (20724, array([1])), (20725, array([1])), (20806, array([0])), (20832, array([1])), (20847, array([1])), (20851, array([1])), (20852, array([1])), (20902, array([1])), (20904, array([1])), (20927, array([1])), (20940, array([1])), (20984, array([1])), (20992, array([1])), (20999, array([0])), (21012, array([1])), (21084, array([1])), (21154, array([1])), (21157, array([1])), (21159, array([1])), (21169, array([0])), (21198, array([1])), (21209, array([1])), (21210, array([1])), (21222, array([1])), (21227, array([1])), (21230, array([0])), (21232, array([1])), (21253, array([1])), (21259, array([1])), (21286, array([1])), (21301, array([1])), (21306, array([0])), (21317, array([0])), (21325, array([1])), (21362, array([0])), (21411, array([1])), (21454, array([1])), (21472, array([1])), (21478, array([1])), (21481, array([1])), (21483, array([1])), (21492, array([1])), (21500, array([1])), (21524, array([1])), (21526, array([0])), (21554, array([1])), (21572, array([1])), (21608, array([1])), (21615, array([1])), (21621, array([1])), (21647, array([1])), (21730, array([1])), (21742, array([1])), (21780, array([0])), (21823, array([1])), (21833, array([0])), (21852, array([1])), (21859, array([1])), (21893, array([1])), (21921, array([1])), (21953, array([1])), (21979, array([1])), (22006, array([1])), (22008, array([1])), (22080, array([1])), (22128, array([0])), (22152, array([0])), (22164, array([1])), (22195, array([1])), (22215, array([1])), (22220, array([0])), (22227, array([1])), (22279, array([1])), (22280, array([1])), (22297, array([1])), (22298, array([1])), (22327, array([1])), (22331, array([1])), (22341, array([1])), (22360, array([1])), (22413, array([1])), (22500, array([1])), (22503, array([0])), (22509, array([1])), (22515, array([1])), (22551, array([0])), (22560, array([1])), (22561, array([1])), (22620, array([0])), (22623, array([1])), (22743, array([1])), (22821, array([1])), (22827, array([1])), (22835, array([0])), (22841, array([1])), (22843, array([1])), (22854, array([1])), (22862, array([1])), (22884, array([1])), (22886, array([1])), (22914, array([1])), (22956, array([1])), (22957, array([0])), (22961, array([1])), (22964, array([1])), (22967, array([1])), (22980, array([1])), (23039, array([1])), (23139, array([1])), (23174, array([0])), (23189, array([1])), (23216, array([1])), (23262, array([1])), (23311, array([1])), (23321, array([1])), (23352, array([1])), (23355, array([1])), (23386, array([1])), (23395, array([1])), (23408, array([1])), (23433, array([1])), (23469, array([1])), (23506, array([1])), (23507, array([1])), (23512, array([0])), (23543, array([1])), (23592, array([1])), (23627, array([0])), (23634, array([1])), (23635, array([1])), (23648, array([1])), (23725, array([1])), (23759, array([1])), (23791, array([1])), (23829, array([1])), (23843, array([0])), (23906, array([1])), (23935, array([0])), (23945, array([1])), (23950, array([0])), (23983, array([1])), (23984, array([1])), (24011, array([1])), (24022, array([1])), (24037, array([1])), (24097, array([1])), (24098, array([1])), (24107, array([1])), (24144, array([1])), (24152, array([1])), (24178, array([1])), (24204, array([1])), (24206, array([1])), (24225, array([1])), (24259, array([1])), (24296, array([1])), (24302, array([1])), (24408, array([1])), (24466, array([1])), (24488, array([1])), (24494, array([1])), (24528, array([1])), (24540, array([0])), (24552, array([1])), (24579, array([1])), (24598, array([1])), (24606, array([1])), (24629, array([1])), (24642, array([1])), (24647, array([1])), (24649, array([1])), (24658, array([1])), (24659, array([1])), (24699, array([1])), (24707, array([1])), (24759, array([1])), (24797, array([1])), (24825, array([1])), (24851, array([1])), (24857, array([0])), (24858, array([1])), (24888, array([1])), (24895, array([1])), (24915, array([1])), (24916, array([1])), (24961, array([1])), (25000, array([1])), (25070, array([1])), (25106, array([1])), (25133, array([0])), (25148, array([1])), (25212, array([1])), (25213, array([1])), (25227, array([1])), (25313, array([1])), (25374, array([1])), (25398, array([1])), (25440, array([1])), (25492, array([1])), (25567, array([0])), (25578, array([1])), (25592, array([1])), (25707, array([1])), (25745, array([0])), (25773, array([1])), (25833, array([1])), (25837, array([0])), (25858, array([1])), (25862, array([1])), (25883, array([1])), (25900, array([1])), (25906, array([0])), (25964, array([1])), (25965, array([1])), (25972, array([1])), (25992, array([1])), (26003, array([1])), (26030, array([1])), (26046, array([1])), (26058, array([1])), (26085, array([1])), (26089, array([1])), (26102, array([1])), (26125, array([1])), (26167, array([1])), (26286, array([0])), (26303, array([1])), (26311, array([1])), (26352, array([1])), (26364, array([1])), (26366, array([1])), (26371, array([1])), (26445, array([0])), (26454, array([1])), (26458, array([1])), (26468, array([1])), (26475, array([1])), (26480, array([0])), (26482, array([1])), (26517, array([1])), (26536, array([1])), (26543, array([1])), (26545, array([1])), (26562, array([1])), (26565, array([1])), (26569, array([1])), (26583, array([1])), (26607, array([1])), (26622, array([1])), (26623, array([0])), (26641, array([1])), (26658, array([1])), (26676, array([1])), (26679, array([1])), (26697, array([1])), (26714, array([0])), (26758, array([1])), (26761, array([1])), (26821, array([1])), (26840, array([1])), (26861, array([1])), (26872, array([1])), (26880, array([1])), (26937, array([1])), (26949, array([1])), (26955, array([1])), (27025, array([1])), (27052, array([1])), (27061, array([1])), (27066, array([1])), (27080, array([1])), (27092, array([1])), (27118, array([1])), (27127, array([0])), (27142, array([0])), (27157, array([1])), (27188, array([1])), (27192, array([0])), (27220, array([1])), (27230, array([0])), (27253, array([1])), (27271, array([1])), (27279, array([1])), (27281, array([1])), (27289, array([1])), (27298, array([0])), (27301, array([0])), (27369, array([1])), (27399, array([1])), (27425, array([1])), (27448, array([0])), (27478, array([1])), (27483, array([1])), (27488, array([1])), (27514, array([1])), (27557, array([1])), (27570, array([1])), (27579, array([1])), (27637, array([1])), (27693, array([1])), (27741, array([0])), (27749, array([0])), (27774, array([1])), (27790, array([1])), (27810, array([1])), (27815, array([1])), (27832, array([1])), (27856, array([1])), (27894, array([1])), (27895, array([1])), (27898, array([1])), (27908, array([1])), (27942, array([1])), (27982, array([1])), (27998, array([1])), (28001, array([1])), (28009, array([1])), (28042, array([0])), (28065, array([1])), (28088, array([1])), (28096, array([0])), (28118, array([1])), (28142, array([1])), (28151, array([1])), (28177, array([0])), (28181, array([1])), (28193, array([1])), (28240, array([1])), (28256, array([1])), (28283, array([1])), (28307, array([1])), (28355, array([1])), (28357, array([1])), (28410, array([1])), (28436, array([1])), (28449, array([1])), (28469, array([1])), (28471, array([1])), (28491, array([0])), (28516, array([1])), (28596, array([1])), (28597, array([1])), (28604, array([1])), (28628, array([0])), (28630, array([1])), (28650, array([1])), (28659, array([1])), (28661, array([1])), (28663, array([1])), (28669, array([1])), (28700, array([1])), (28719, array([1])), (28728, array([0])), (28732, array([1])), (28742, array([1])), (28767, array([1])), (28773, array([1])), (28798, array([1])), (28822, array([1])), (28824, array([1])), (28881, array([1])), (28934, array([1])), (28956, array([1])), (28986, array([0])), (29057, array([1])), (29059, array([1])), (29072, array([1])), (29080, array([1])), (29104, array([1])), (29133, array([0])), (29247, array([0])), (29253, array([1])), (29258, array([1])), (29268, array([1])), (29274, array([1])), (29278, array([1])), (29302, array([1])), (29329, array([1])), (29340, array([1])), (29391, array([1])), (29422, array([1])), (29430, array([0])), (29440, array([1])), (29473, array([1])), (29484, array([1])), (29494, array([1])), (29500, array([1])), (29534, array([1])), (29537, array([1])), (29597, array([1])), (29602, array([0])), (29695, array([1])), (29722, array([1])), (29746, array([1])), (29752, array([1])), (29756, array([1])), (29778, array([1])), (29790, array([1])), (29859, array([1])), (29904, array([0])), (29939, array([1])), (29948, array([0])), (29953, array([1])), (29994, array([1])), (29997, array([1])), (30069, array([1])), (30149, array([1])), (30192, array([1])), (30231, array([1])), (30254, array([1])), (30274, array([1])), (30300, array([0])), (30317, array([1])), (30321, array([0])), (30332, array([1])), (30370, array([1])), (30405, array([1])), (30417, array([1])), (30440, array([0])), (30478, array([1])), (30489, array([0])), (30516, array([1])), (30527, array([1])), (30529, array([1])), (30536, array([1])), (30545, array([1])), (30619, array([1])), (30664, array([1])), (30670, array([1])), (30681, array([1])), (30705, array([0])), (30714, array([1])), (30743, array([0])), (30758, array([0])), (30774, array([1])), (30792, array([1])), (30823, array([1])), (30847, array([1])), (30857, array([0])), (30874, array([1])), (30886, array([1])), (30901, array([1])), (30928, array([1])), (30998, array([1])), (31045, array([0])), (31073, array([1])), (31102, array([1])), (31109, array([1])), (31111, array([1])), (31118, array([1])), (31150, array([1])), (31164, array([1])), (31197, array([1])), (31215, array([1])), (31229, array([1])), (31232, array([1])), (31249, array([0])), (31309, array([1])), (31313, array([1])), (31330, array([1])), (31334, array([1])), (31337, array([1])), (31352, array([1])), (31382, array([1])), (31445, array([1])), (31466, array([1])), (31472, array([1])), (31520, array([1])), (31526, array([1])), (31533, array([1])), (31620, array([1])), (31626, array([1])), (31643, array([1])), (31660, array([1])), (31714, array([1])), (31723, array([1])), (31752, array([1])), (31850, array([1])), (31898, array([1])), (31900, array([1])), (31926, array([1])), (31940, array([1])), (32006, array([1]))]</t>
   </si>
 </sst>
 </file>
